--- a/result/bus_ev.xlsx
+++ b/result/bus_ev.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.00000000000001</v>
+        <v>0.9999723627083705</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.6386003795208</v>
+        <v>15.68624921271902</v>
       </c>
       <c r="E2">
-        <v>-16.84935382601168</v>
+        <v>-30.42010617628597</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.00059999999999</v>
+        <v>0.9997489945929747</v>
       </c>
       <c r="C3">
-        <v>0.1767881103517149</v>
+        <v>0.2759989322748829</v>
       </c>
       <c r="D3">
-        <v>-6.89851953339371e-10</v>
+        <v>2.09616350197589e-08</v>
       </c>
       <c r="E3">
-        <v>-82.22667769482374</v>
+        <v>1.00000001227624</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.00059999999999</v>
+        <v>0.9997489945929747</v>
       </c>
       <c r="C4">
-        <v>0.1767881103517149</v>
+        <v>0.2759989322748829</v>
       </c>
       <c r="D4">
-        <v>-6.89851953339371e-10</v>
+        <v>2.09616350197589e-08</v>
       </c>
       <c r="E4">
-        <v>-82.22667769482374</v>
+        <v>1.00000001227624</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.000000000000005</v>
+        <v>0.9999143422279139</v>
       </c>
       <c r="C5">
-        <v>0.2565816401856923</v>
+        <v>0.2738659557326975</v>
       </c>
       <c r="D5">
-        <v>1.087269163591031e-11</v>
+        <v>-2.939012302624611e-09</v>
       </c>
       <c r="E5">
-        <v>43.58697647804596</v>
+        <v>-3.24918533308906</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.000450150037184</v>
+        <v>1.000001495204969</v>
       </c>
       <c r="C6">
-        <v>0.219415175218541</v>
+        <v>0.2804578331853104</v>
       </c>
       <c r="D6">
-        <v>-0.1470000000045605</v>
+        <v>-0.1890000029323732</v>
       </c>
       <c r="E6">
-        <v>-38.44085269890356</v>
+        <v>-3.444081941358786</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9999695787768498</v>
+        <v>0.9999969497752743</v>
       </c>
       <c r="C7">
-        <v>0.285209678733485</v>
+        <v>0.2960354202858904</v>
       </c>
       <c r="D7">
-        <v>-0.1470000000137766</v>
+        <v>-0.1890000029293932</v>
       </c>
       <c r="E7">
-        <v>19.97100641811803</v>
+        <v>-0.3933939446031537</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9999272134207153</v>
+        <v>0.9999926798696871</v>
       </c>
       <c r="C8">
-        <v>0.3006926765643928</v>
+        <v>0.3095006763293119</v>
       </c>
       <c r="D8">
-        <v>-0.1470000000127809</v>
+        <v>-0.1890000029188163</v>
       </c>
       <c r="E8">
-        <v>11.9068843955659</v>
+        <v>-3.020548947435497</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.000172277403533</v>
+        <v>1.000001722416862</v>
       </c>
       <c r="C9">
-        <v>0.2796999559437522</v>
+        <v>0.3165856150444903</v>
       </c>
       <c r="D9">
-        <v>-0.1253000000083707</v>
+        <v>-0.1673000029299807</v>
       </c>
       <c r="E9">
-        <v>-17.8509615962917</v>
+        <v>-0.1969600636527677</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9999821177386053</v>
+        <v>0.9999982012743093</v>
       </c>
       <c r="C10">
-        <v>0.3064554297637163</v>
+        <v>0.3239686354750997</v>
       </c>
       <c r="D10">
-        <v>-0.1469999999960167</v>
+        <v>-0.1890000029253022</v>
       </c>
       <c r="E10">
-        <v>23.76276218394101</v>
+        <v>-0.3459315998178832</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.000389001114901</v>
+        <v>1.000003890154015</v>
       </c>
       <c r="C11">
-        <v>0.2648659055057772</v>
+        <v>0.328172842124031</v>
       </c>
       <c r="D11">
-        <v>-0.05180000000259263</v>
+        <v>-0.1148000029240842</v>
       </c>
       <c r="E11">
-        <v>-7.723424598304129</v>
+        <v>0.07793036771215137</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.000607987694502</v>
+        <v>1.000006079991471</v>
       </c>
       <c r="C12">
-        <v>0.2439466355203345</v>
+        <v>0.3320094916079875</v>
       </c>
       <c r="D12">
-        <v>-0.06159999998908583</v>
+        <v>-0.1036000029308767</v>
       </c>
       <c r="E12">
-        <v>-32.24255857800027</v>
+        <v>0.06247095833506147</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.000049327941527</v>
+        <v>1.000004922773513</v>
       </c>
       <c r="C13">
-        <v>0.3094450165229333</v>
+        <v>0.3355355625980894</v>
       </c>
       <c r="D13">
-        <v>-0.1470000000116932</v>
+        <v>-0.1470000029297403</v>
       </c>
       <c r="E13">
-        <v>21.63161139404504</v>
+        <v>-0.728151878255053</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.00002375201699</v>
+        <v>1.000002359899426</v>
       </c>
       <c r="C14">
-        <v>0.3137826532883912</v>
+        <v>0.3374171074241508</v>
       </c>
       <c r="D14">
-        <v>-0.1063999999976602</v>
+        <v>-0.1064000029238702</v>
       </c>
       <c r="E14">
-        <v>-4.620371927658877</v>
+        <v>-1.22990207453484</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.000015092464527</v>
+        <v>1.00000151850017</v>
       </c>
       <c r="C15">
-        <v>0.2696614157287898</v>
+        <v>0.3080734013414929</v>
       </c>
       <c r="D15">
-        <v>-0.08540000000091461</v>
+        <v>-0.1274000029220028</v>
       </c>
       <c r="E15">
-        <v>-1.340311108008418</v>
+        <v>1.017787041183645</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.000018831733837</v>
+        <v>1.000001887880268</v>
       </c>
       <c r="C16">
-        <v>0.3196160210935234</v>
+        <v>0.3786115493525787</v>
       </c>
       <c r="D16">
-        <v>-0.09310000000071927</v>
+        <v>-0.1050000028659172</v>
       </c>
       <c r="E16">
-        <v>-4.567710141451699</v>
+        <v>0.4201458880364889</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9999774616845927</v>
+        <v>0.9999977603734782</v>
       </c>
       <c r="C17">
-        <v>0.4006345237916531</v>
+        <v>0.4418509668850923</v>
       </c>
       <c r="D17">
-        <v>-0.1469999999986875</v>
+        <v>-0.1470000028001928</v>
       </c>
       <c r="E17">
-        <v>3.075415419511296</v>
+        <v>1.560404690631725</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.999977718681451</v>
+        <v>0.9999977857313992</v>
       </c>
       <c r="C18">
-        <v>0.4395512900307373</v>
+        <v>0.4836265814739899</v>
       </c>
       <c r="D18">
-        <v>-0.146300000004168</v>
+        <v>-0.1463000027646638</v>
       </c>
       <c r="E18">
-        <v>2.538527768980868</v>
+        <v>1.589564811278873</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.000001632011111</v>
+        <v>1.000001644370932</v>
       </c>
       <c r="C19">
-        <v>0.4430887396538484</v>
+        <v>0.5006967607433176</v>
       </c>
       <c r="D19">
-        <v>-0.1470000000010812</v>
+        <v>-0.1680000027443842</v>
       </c>
       <c r="E19">
-        <v>0.2877889716868859</v>
+        <v>1.44455480964286</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9999749788342307</v>
+        <v>0.9999975102397403</v>
       </c>
       <c r="C20">
-        <v>0.3248274216069451</v>
+        <v>0.3400440860930951</v>
       </c>
       <c r="D20">
-        <v>-0.1259999999996896</v>
+        <v>-0.1372000029138461</v>
       </c>
       <c r="E20">
-        <v>1.560301307131916</v>
+        <v>1.362536226399796</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.000053477955398</v>
+        <v>1.000005358678113</v>
       </c>
       <c r="C21">
-        <v>0.3215539537711062</v>
+        <v>0.3497063508115107</v>
       </c>
       <c r="D21">
-        <v>-0.1260000000006058</v>
+        <v>-0.1260000029106998</v>
       </c>
       <c r="E21">
-        <v>1.024116080525982</v>
+        <v>1.200596014594322</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9999201244175083</v>
+        <v>0.9999920287958189</v>
       </c>
       <c r="C22">
-        <v>0.385399812611717</v>
+        <v>0.3586761628081203</v>
       </c>
       <c r="D22">
-        <v>-0.1260000000006065</v>
+        <v>-0.1358000029056604</v>
       </c>
       <c r="E22">
-        <v>6.119865730390295</v>
+        <v>1.806592912694671</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.00059999999999</v>
+        <v>0.9997489945929747</v>
       </c>
       <c r="C23">
-        <v>0.1767881103517149</v>
+        <v>0.2759989322748829</v>
       </c>
       <c r="D23">
-        <v>-6.89851953339371e-10</v>
+        <v>2.09616350197589e-08</v>
       </c>
       <c r="E23">
-        <v>-82.22667769482374</v>
+        <v>1.00000001227624</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.000000000000003</v>
+        <v>0.9994717570110343</v>
       </c>
       <c r="C24">
-        <v>0.8751270009888641</v>
+        <v>0.9299852625689272</v>
       </c>
       <c r="D24">
-        <v>-2.617565591361837e-10</v>
+        <v>-1.878742597605232e-08</v>
       </c>
       <c r="E24">
-        <v>0.2559975463605027</v>
+        <v>13.14017783389293</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9997699007235288</v>
+        <v>1.001064057380033</v>
       </c>
       <c r="C25">
-        <v>1.32473631091671</v>
+        <v>1.047883502236766</v>
       </c>
       <c r="D25">
-        <v>-7.000000000000709</v>
+        <v>-6.999998569297382</v>
       </c>
       <c r="E25">
-        <v>23.99790724397446</v>
+        <v>-0.9999995480498152</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9997790088075562</v>
+        <v>0.9994643869100923</v>
       </c>
       <c r="C26">
-        <v>1.118003384445054</v>
+        <v>1.13630736892276</v>
       </c>
       <c r="D26">
-        <v>3.720981855970251e-13</v>
+        <v>-2.442614108200125e-08</v>
       </c>
       <c r="E26">
-        <v>1.44337894054596</v>
+        <v>11.75090570003055</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.00059999999999</v>
+        <v>0.9997489945929747</v>
       </c>
       <c r="C27">
-        <v>0.1767881103517149</v>
+        <v>0.2759989322748829</v>
       </c>
       <c r="D27">
-        <v>-6.89851953339371e-10</v>
+        <v>2.09616350197589e-08</v>
       </c>
       <c r="E27">
-        <v>-82.22667769482374</v>
+        <v>1.00000001227624</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.9999166330160029</v>
       </c>
       <c r="C28">
-        <v>0.332049562827075</v>
+        <v>0.3593491679793365</v>
       </c>
       <c r="D28">
-        <v>-3.602835044191899e-11</v>
+        <v>-3.055162069512396e-10</v>
       </c>
       <c r="E28">
-        <v>4.171529409219991</v>
+        <v>-0.8999303567203426</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9997005556993146</v>
+        <v>1.000023023982372</v>
       </c>
       <c r="C29">
-        <v>0.4583042731454715</v>
+        <v>0.4489628525898201</v>
       </c>
       <c r="D29">
-        <v>-0.4000000000215678</v>
+        <v>-0.4000000002997386</v>
       </c>
       <c r="E29">
-        <v>3.788409001206835</v>
+        <v>-1.909557305005504</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.9996237209868137</v>
+        <v>0.9999486529078315</v>
       </c>
       <c r="C30">
-        <v>0.5565081723526608</v>
+        <v>0.5502943078790836</v>
       </c>
       <c r="D30">
-        <v>-0.400000000019659</v>
+        <v>-0.4000000003081668</v>
       </c>
       <c r="E30">
-        <v>8.0456165019979</v>
+        <v>-0.06174730788998915</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.000298092425482</v>
+        <v>0.9999800627170481</v>
       </c>
       <c r="C31">
-        <v>0.551416397521751</v>
+        <v>0.6111400475778832</v>
       </c>
       <c r="D31">
-        <v>-0.3999999999993408</v>
+        <v>-0.4000000002985974</v>
       </c>
       <c r="E31">
-        <v>-9.425870143225437</v>
+        <v>1.121731826365963</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.000259107248881</v>
+        <v>1.000042854991734</v>
       </c>
       <c r="C32">
-        <v>0.6105129068300065</v>
+        <v>0.6625273798898502</v>
       </c>
       <c r="D32">
-        <v>-0.4000000000033941</v>
+        <v>-0.4000000003010334</v>
       </c>
       <c r="E32">
-        <v>2.159019653616556</v>
+        <v>-2.902690531242068</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.0003123698546</v>
+        <v>0.9999913647721517</v>
       </c>
       <c r="C33">
-        <v>0.6425840684654638</v>
+        <v>0.7060880507648809</v>
       </c>
       <c r="D33">
-        <v>-0.4000000000046204</v>
+        <v>-0.4000000002979214</v>
       </c>
       <c r="E33">
-        <v>4.041312441660943</v>
+        <v>2.486152648018971</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.000602215656173</v>
+        <v>1.000066982544681</v>
       </c>
       <c r="C34">
-        <v>0.6448257107274918</v>
+        <v>0.7306655760943007</v>
       </c>
       <c r="D34">
-        <v>-0.3999999999993493</v>
+        <v>-0.4000000002998109</v>
       </c>
       <c r="E34">
-        <v>-18.3982840321852</v>
+        <v>-1.402156357329329</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9995479719766683</v>
+        <v>0.9999951282706461</v>
       </c>
       <c r="C35">
-        <v>0.7739421663889513</v>
+        <v>0.7634186612397401</v>
       </c>
       <c r="D35">
-        <v>-0.39999999999798</v>
+        <v>-0.4000000002958368</v>
       </c>
       <c r="E35">
-        <v>20.24564163694746</v>
+        <v>-1.458949293652528</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.000024771832482</v>
+        <v>0.9999577465225039</v>
       </c>
       <c r="C36">
-        <v>0.7374733031486479</v>
+        <v>0.7783858018338805</v>
       </c>
       <c r="D36">
-        <v>-0.3999999999971161</v>
+        <v>-0.4000000002976564</v>
       </c>
       <c r="E36">
-        <v>-13.68278629378457</v>
+        <v>1.047036944732225</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.999632865393144</v>
+        <v>1.000053889308227</v>
       </c>
       <c r="C37">
-        <v>0.6697196078480698</v>
+        <v>0.6465471506666766</v>
       </c>
       <c r="D37">
-        <v>-0.4000000000082125</v>
+        <v>-0.4000000002941196</v>
       </c>
       <c r="E37">
-        <v>13.26579966016846</v>
+        <v>-1.899266940568431</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.9995727952059287</v>
+        <v>1.000025911292872</v>
       </c>
       <c r="C38">
-        <v>0.7137726112530212</v>
+        <v>0.6855803523543198</v>
       </c>
       <c r="D38">
-        <v>2.078920369186221e-12</v>
+        <v>-2.94996897569344e-10</v>
       </c>
       <c r="E38">
-        <v>9.41326292312338</v>
+        <v>-0.3986134891127217</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.9996900346867544</v>
+        <v>1.000043512937636</v>
       </c>
       <c r="C39">
-        <v>0.7442650264093551</v>
+        <v>0.7503004763213893</v>
       </c>
       <c r="D39">
-        <v>-0.4000000000005577</v>
+        <v>-0.4000000002900636</v>
       </c>
       <c r="E39">
-        <v>0.997277617916403</v>
+        <v>2.192971187952669</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.000240558966567</v>
+        <v>1.000010217108321</v>
       </c>
       <c r="C40">
-        <v>0.4799882788291929</v>
+        <v>0.6910032460903427</v>
       </c>
       <c r="D40">
-        <v>1.376121439022882e-13</v>
+        <v>-2.946148624539957e-10</v>
       </c>
       <c r="E40">
-        <v>-8.158931199466203</v>
+        <v>0.1892984110929763</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.00078619700971</v>
+        <v>1.000012911962643</v>
       </c>
       <c r="C41">
-        <v>0.3910935910155853</v>
+        <v>0.7840082323725363</v>
       </c>
       <c r="D41">
-        <v>-0.7000000000003335</v>
+        <v>-0.7000000002878206</v>
       </c>
       <c r="E41">
-        <v>-9.845792622282678</v>
+        <v>4.682497457280704</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.00040878824371</v>
+        <v>1.00003767966767</v>
       </c>
       <c r="C42">
-        <v>0.6337617132548846</v>
+        <v>0.7286631805384765</v>
       </c>
       <c r="D42">
-        <v>-0.4000000000071348</v>
+        <v>-0.4000000002982164</v>
       </c>
       <c r="E42">
-        <v>-10.19371130802492</v>
+        <v>-0.2288450621148033</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.000475545840634</v>
+        <v>0.9999674203744158</v>
       </c>
       <c r="C43">
-        <v>0.6172474986304173</v>
+        <v>0.7452137252485237</v>
       </c>
       <c r="D43">
-        <v>-4.068967385251199e-13</v>
+        <v>-2.95615682974204e-10</v>
       </c>
       <c r="E43">
-        <v>-5.233707496067473</v>
+        <v>0.6916553901570958</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.9995848131452169</v>
+        <v>1.000014784444775</v>
       </c>
       <c r="C44">
-        <v>0.9830554117016604</v>
+        <v>0.8072766807367538</v>
       </c>
       <c r="D44">
-        <v>-0.4000000000013967</v>
+        <v>-0.4000000002913072</v>
       </c>
       <c r="E44">
-        <v>12.1259867127378</v>
+        <v>2.677920237513916</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.00011238767836</v>
+        <v>0.9999516243677122</v>
       </c>
       <c r="C45">
-        <v>0.7418930386632048</v>
+        <v>0.750672111188076</v>
       </c>
       <c r="D45">
-        <v>-8.020042963075014e-13</v>
+        <v>-2.945220681921379e-10</v>
       </c>
       <c r="E45">
-        <v>4.353433053424931</v>
+        <v>0.1905150392360865</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9995529982161134</v>
+        <v>0.9999545076353359</v>
       </c>
       <c r="C46">
-        <v>0.8606745840516252</v>
+        <v>0.8656993526725024</v>
       </c>
       <c r="D46">
-        <v>-0.4999999999998574</v>
+        <v>-0.5000000002905894</v>
       </c>
       <c r="E46">
-        <v>2.941877203810911</v>
+        <v>3.487146008347407</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.9994972100534644</v>
+        <v>1.000050447255362</v>
       </c>
       <c r="C47">
-        <v>0.9702619824630725</v>
+        <v>0.799590954096145</v>
       </c>
       <c r="D47">
-        <v>-0.3000000000005916</v>
+        <v>-0.3000000002949401</v>
       </c>
       <c r="E47">
-        <v>8.072087075515441</v>
+        <v>0.6904635060991966</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.00059999999999</v>
+        <v>0.9997489945929747</v>
       </c>
       <c r="C48">
-        <v>0.1767881103517149</v>
+        <v>0.2759989322748829</v>
       </c>
       <c r="D48">
-        <v>-6.89851953339371e-10</v>
+        <v>2.09616350197589e-08</v>
       </c>
       <c r="E48">
-        <v>-82.22667769482374</v>
+        <v>1.00000001227624</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.000000000000001</v>
+        <v>0.9997943112278614</v>
       </c>
       <c r="C49">
-        <v>0.2460395791768947</v>
+        <v>0.2741638675433569</v>
       </c>
       <c r="D49">
-        <v>3.21484505683145e-12</v>
+        <v>-2.938176216216171e-09</v>
       </c>
       <c r="E49">
-        <v>53.95138152109392</v>
+        <v>7.132587068740346</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.000700000000011</v>
+        <v>1.000011384449252</v>
       </c>
       <c r="C50">
-        <v>0.1705339493843857</v>
+        <v>0.2531756228012375</v>
       </c>
       <c r="D50">
-        <v>1.947497718646218e-12</v>
+        <v>-2.96350518430577e-09</v>
       </c>
       <c r="E50">
-        <v>-69.52169458786987</v>
+        <v>-7.584620321867152</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.000399999999986</v>
+        <v>1.000051062292019</v>
       </c>
       <c r="C51">
-        <v>0.2045972361430466</v>
+        <v>0.2494404537450054</v>
       </c>
       <c r="D51">
-        <v>-0.03500000000272134</v>
+        <v>-0.03500000294317308</v>
       </c>
       <c r="E51">
-        <v>16.68759424854567</v>
+        <v>-2.468029705767952</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.000499999999998</v>
+        <v>1.000029710635558</v>
       </c>
       <c r="C52">
-        <v>0.1938556907450474</v>
+        <v>0.2522828548433622</v>
       </c>
       <c r="D52">
-        <v>-0.0299999999942543</v>
+        <v>-0.0300000029599061</v>
       </c>
       <c r="E52">
-        <v>-16.57869745858478</v>
+        <v>-0.5886634353496492</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.000199999999998</v>
+        <v>0.9999927909688686</v>
       </c>
       <c r="C53">
-        <v>0.2275508672083983</v>
+        <v>0.2566644944292782</v>
       </c>
       <c r="D53">
-        <v>-0.04000000000176088</v>
+        <v>-0.04000000293755877</v>
       </c>
       <c r="E53">
-        <v>10.46062432003381</v>
+        <v>3.393676822514642</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.000150000000003</v>
+        <v>1.000035676527569</v>
       </c>
       <c r="C54">
-        <v>0.2331272981264474</v>
+        <v>0.2518796939472455</v>
       </c>
       <c r="D54">
-        <v>1.209825642445317e-12</v>
+        <v>-2.934164250109617e-09</v>
       </c>
       <c r="E54">
-        <v>2.077724659640714</v>
+        <v>-1.78219768425976</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.000030000000003</v>
+        <v>1.000006320237394</v>
       </c>
       <c r="C55">
-        <v>0.2474740269112321</v>
+        <v>0.2562903854917804</v>
       </c>
       <c r="D55">
-        <v>-0.04499999999796553</v>
+        <v>-0.04500000294165524</v>
       </c>
       <c r="E55">
-        <v>28.97132071284731</v>
+        <v>0.8456662517934558</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.000055999999999</v>
+        <v>1.000019500705154</v>
       </c>
       <c r="C56">
-        <v>0.2466245692632115</v>
+        <v>0.2570726446428793</v>
       </c>
       <c r="D56">
-        <v>-0.06500000000508142</v>
+        <v>-0.06500000295179621</v>
       </c>
       <c r="E56">
-        <v>-0.1643253085679896</v>
+        <v>1.630408996396327</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.000075000000013</v>
+        <v>1.000068874371744</v>
       </c>
       <c r="C57">
-        <v>0.2461266652453726</v>
+        <v>0.2533882154007533</v>
       </c>
       <c r="D57">
-        <v>-0.01500000000704412</v>
+        <v>-0.01500000293582316</v>
       </c>
       <c r="E57">
-        <v>-0.03312881223669203</v>
+        <v>-5.983972863066009</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.000090000000003</v>
+        <v>0.9999871816017444</v>
       </c>
       <c r="C58">
-        <v>0.2457584060707522</v>
+        <v>0.2639824578143751</v>
       </c>
       <c r="D58">
-        <v>-0.05000000000059221</v>
+        <v>-0.05000000293742576</v>
       </c>
       <c r="E58">
-        <v>-3.954997220360826</v>
+        <v>5.002016504028564</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.000010000000011</v>
+        <v>1.000009931158291</v>
       </c>
       <c r="C59">
-        <v>0.255877324755655</v>
+        <v>0.2628444793329771</v>
       </c>
       <c r="D59">
-        <v>-4.794692420873048e-12</v>
+        <v>-2.943866388507854e-09</v>
       </c>
       <c r="E59">
-        <v>17.81931570744516</v>
+        <v>-1.157454438481429</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.000027000000009</v>
+        <v>1.000006943758257</v>
       </c>
       <c r="C60">
-        <v>0.2548085344688096</v>
+        <v>0.2640786069098506</v>
       </c>
       <c r="D60">
-        <v>-0.04060000000850595</v>
+        <v>-0.04060000293129497</v>
       </c>
       <c r="E60">
-        <v>11.54123833590391</v>
+        <v>-0.4953865027012431</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.000320000000003</v>
+        <v>0.9999901331194826</v>
       </c>
       <c r="C61">
-        <v>0.2227083444785173</v>
+        <v>0.2665868191866058</v>
       </c>
       <c r="D61">
-        <v>-0.05250000001218402</v>
+        <v>-0.05250000293829683</v>
       </c>
       <c r="E61">
-        <v>-22.53780054496754</v>
+        <v>-0.694948326033004</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.000104495842726</v>
+        <v>0.9999592825895464</v>
       </c>
       <c r="C62">
-        <v>0.2469782726185014</v>
+        <v>0.270274131412536</v>
       </c>
       <c r="D62">
-        <v>-0.04340000000536044</v>
+        <v>-0.04340000294371815</v>
       </c>
       <c r="E62">
-        <v>10.52836210925882</v>
+        <v>1.579902076988075</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.000294595884551</v>
+        <v>1.000008115987265</v>
       </c>
       <c r="C63">
-        <v>0.2244696369672233</v>
+        <v>0.2634748708559894</v>
       </c>
       <c r="D63">
-        <v>-0.03359999999921362</v>
+        <v>-0.03360000294844349</v>
       </c>
       <c r="E63">
-        <v>-17.64980701710081</v>
+        <v>-4.038482406745163</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.00021403088495</v>
+        <v>0.9999216606762558</v>
       </c>
       <c r="C64">
-        <v>0.2336255429630354</v>
+        <v>0.2733600218861721</v>
       </c>
       <c r="D64">
-        <v>-0.04269999999913146</v>
+        <v>-0.04270000294031863</v>
       </c>
       <c r="E64">
-        <v>21.47281091175372</v>
+        <v>4.509470398179273</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.000574859636541</v>
+        <v>0.9999265341915188</v>
       </c>
       <c r="C65">
-        <v>0.1933519990393786</v>
+        <v>0.2728162776402503</v>
       </c>
       <c r="D65">
-        <v>-5.080054432671233e-12</v>
+        <v>-2.936032131826971e-09</v>
       </c>
       <c r="E65">
-        <v>-17.51413970455665</v>
+        <v>-0.2362409687772945</v>
       </c>
     </row>
   </sheetData>

--- a/result/bus_ev.xlsx
+++ b/result/bus_ev.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9999723627083705</v>
+        <v>1.000049959814275</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>15.68624921271902</v>
+        <v>-7.400070402869141</v>
       </c>
       <c r="E2">
-        <v>-30.42010617628597</v>
+        <v>15.2095757779233</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9997489945929747</v>
+        <v>1.00022423336732</v>
       </c>
       <c r="C3">
-        <v>0.2759989322748829</v>
+        <v>-0.1361280933070403</v>
       </c>
       <c r="D3">
-        <v>2.09616350197589e-08</v>
+        <v>-3.829398125703744e-08</v>
       </c>
       <c r="E3">
-        <v>1.00000001227624</v>
+        <v>-0.5200000218193284</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9997489945929747</v>
+        <v>1.00022423336732</v>
       </c>
       <c r="C4">
-        <v>0.2759989322748829</v>
+        <v>-0.1361280933070403</v>
       </c>
       <c r="D4">
-        <v>2.09616350197589e-08</v>
+        <v>-3.829398125703744e-08</v>
       </c>
       <c r="E4">
-        <v>1.00000001227624</v>
+        <v>-0.5200000218193284</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9999143422279139</v>
+        <v>1.000203388240797</v>
       </c>
       <c r="C5">
-        <v>0.2738659557326975</v>
+        <v>-0.1338215771628684</v>
       </c>
       <c r="D5">
-        <v>-2.939012302624611e-09</v>
+        <v>-2.509527442005313</v>
       </c>
       <c r="E5">
-        <v>-3.24918533308906</v>
+        <v>8.940109756661041e-09</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.000001495204969</v>
+        <v>1.000064972828369</v>
       </c>
       <c r="C6">
-        <v>0.2804578331853104</v>
+        <v>-0.1349741197214263</v>
       </c>
       <c r="D6">
-        <v>-0.1890000029323732</v>
+        <v>0.1890000226138598</v>
       </c>
       <c r="E6">
-        <v>-3.444081941358786</v>
+        <v>9.241813925145274e-09</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9999969497752743</v>
+        <v>0.9999354136117194</v>
       </c>
       <c r="C7">
-        <v>0.2960354202858904</v>
+        <v>-0.1358663616289451</v>
       </c>
       <c r="D7">
-        <v>-0.1890000029293932</v>
+        <v>0.1890000037736738</v>
       </c>
       <c r="E7">
-        <v>-0.3933939446031537</v>
+        <v>11.54056748596847</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9999926798696871</v>
+        <v>0.9999926440951248</v>
       </c>
       <c r="C8">
-        <v>0.3095006763293119</v>
+        <v>-0.155474169901938</v>
       </c>
       <c r="D8">
-        <v>-0.1890000029188163</v>
+        <v>0.1890000044631359</v>
       </c>
       <c r="E8">
-        <v>-3.020548947435497</v>
+        <v>2.482378255683177</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.000001722416862</v>
+        <v>1.000001725225278</v>
       </c>
       <c r="C9">
-        <v>0.3165856150444903</v>
+        <v>-0.1646046460903015</v>
       </c>
       <c r="D9">
-        <v>-0.1673000029299807</v>
+        <v>0.1673000046283437</v>
       </c>
       <c r="E9">
-        <v>-0.1969600636527677</v>
+        <v>-0.8506405896114184</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9999982012743093</v>
+        <v>0.9999981937213921</v>
       </c>
       <c r="C10">
-        <v>0.3239686354750997</v>
+        <v>-0.1712205396696795</v>
       </c>
       <c r="D10">
-        <v>-0.1890000029253022</v>
+        <v>0.1890000046353719</v>
       </c>
       <c r="E10">
-        <v>-0.3459315998178832</v>
+        <v>1.048120830890818</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.000003890154015</v>
+        <v>1.000003891077364</v>
       </c>
       <c r="C11">
-        <v>0.328172842124031</v>
+        <v>-0.1767073712744211</v>
       </c>
       <c r="D11">
-        <v>-0.1148000029240842</v>
+        <v>0.1148000046448682</v>
       </c>
       <c r="E11">
-        <v>0.07793036771215137</v>
+        <v>-0.3695862345078732</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.000006079991471</v>
+        <v>1.000006080862365</v>
       </c>
       <c r="C12">
-        <v>0.3320094916079875</v>
+        <v>-0.1810435905821711</v>
       </c>
       <c r="D12">
-        <v>-0.1036000029308767</v>
+        <v>0.1036000046359818</v>
       </c>
       <c r="E12">
-        <v>0.06247095833506147</v>
+        <v>-0.3412810788297914</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.000004922773513</v>
+        <v>1.00000491650224</v>
       </c>
       <c r="C13">
-        <v>0.3355355625980894</v>
+        <v>-0.1843206752792546</v>
       </c>
       <c r="D13">
-        <v>-0.1470000029297403</v>
+        <v>0.1470000046451759</v>
       </c>
       <c r="E13">
-        <v>-0.728151878255053</v>
+        <v>0.6558083722778497</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.000002359899426</v>
+        <v>1.000002364331789</v>
       </c>
       <c r="C14">
-        <v>0.3374171074241508</v>
+        <v>-0.1856370338803617</v>
       </c>
       <c r="D14">
-        <v>-0.1064000029238702</v>
+        <v>0.106400004629561</v>
       </c>
       <c r="E14">
-        <v>-1.22990207453484</v>
+        <v>0.4603935951608307</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.00000151850017</v>
+        <v>1.00000157312937</v>
       </c>
       <c r="C15">
-        <v>0.3080734013414929</v>
+        <v>-0.1874736464556613</v>
       </c>
       <c r="D15">
-        <v>-0.1274000029220028</v>
+        <v>0.1274000039594587</v>
       </c>
       <c r="E15">
-        <v>1.017787041183645</v>
+        <v>-4.406170148387069</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.000001887880268</v>
+        <v>1.000001905386841</v>
       </c>
       <c r="C16">
-        <v>0.3786115493525787</v>
+        <v>-0.2378685738213087</v>
       </c>
       <c r="D16">
-        <v>-0.1050000028659172</v>
+        <v>0.1050000047625272</v>
       </c>
       <c r="E16">
-        <v>0.4201458880364889</v>
+        <v>-1.630639461794436</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9999977603734782</v>
+        <v>0.9999977646328914</v>
       </c>
       <c r="C17">
-        <v>0.4418509668850923</v>
+        <v>-0.2979007128628411</v>
       </c>
       <c r="D17">
-        <v>-0.1470000028001928</v>
+        <v>0.1470000048606892</v>
       </c>
       <c r="E17">
-        <v>1.560404690631725</v>
+        <v>-1.29004436072915</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9999977857313992</v>
+        <v>0.9999977905833595</v>
       </c>
       <c r="C18">
-        <v>0.4836265814739899</v>
+        <v>-0.340152210924106</v>
       </c>
       <c r="D18">
-        <v>-0.1463000027646638</v>
+        <v>0.1463000049279579</v>
       </c>
       <c r="E18">
-        <v>1.589564811278873</v>
+        <v>-1.251051408664094</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.000001644370932</v>
+        <v>1.000001659947109</v>
       </c>
       <c r="C19">
-        <v>0.5006967607433176</v>
+        <v>-0.3615831034015768</v>
       </c>
       <c r="D19">
-        <v>-0.1680000027443842</v>
+        <v>0.168000004963871</v>
       </c>
       <c r="E19">
-        <v>1.44455480964286</v>
+        <v>-1.818000078818594</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9999975102397403</v>
+        <v>0.9999975166629766</v>
       </c>
       <c r="C20">
-        <v>0.3400440860930951</v>
+        <v>-0.1865771238600582</v>
       </c>
       <c r="D20">
-        <v>-0.1372000029138461</v>
+        <v>0.1372000046628308</v>
       </c>
       <c r="E20">
-        <v>1.362536226399796</v>
+        <v>-1.300973761485901</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.000005358678113</v>
+        <v>1.000005365792173</v>
       </c>
       <c r="C21">
-        <v>0.3497063508115107</v>
+        <v>-0.199018973943014</v>
       </c>
       <c r="D21">
-        <v>-0.1260000029106998</v>
+        <v>0.1260000046619616</v>
       </c>
       <c r="E21">
-        <v>1.200596014594322</v>
+        <v>-1.245771746061954</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9999920287958189</v>
+        <v>0.9999920243690669</v>
       </c>
       <c r="C22">
-        <v>0.3586761628081203</v>
+        <v>-0.195448472436646</v>
       </c>
       <c r="D22">
-        <v>-0.1358000029056604</v>
+        <v>0.1358000046559946</v>
       </c>
       <c r="E22">
-        <v>1.806592912694671</v>
+        <v>-0.8262403319445413</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9997489945929747</v>
+        <v>1.00022423336732</v>
       </c>
       <c r="C23">
-        <v>0.2759989322748829</v>
+        <v>-0.1361280933070403</v>
       </c>
       <c r="D23">
-        <v>2.09616350197589e-08</v>
+        <v>-3.829398125703744e-08</v>
       </c>
       <c r="E23">
-        <v>1.00000001227624</v>
+        <v>-0.5200000218193284</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9994717570110343</v>
+        <v>0.9999173160093502</v>
       </c>
       <c r="C24">
-        <v>0.9299852625689272</v>
+        <v>-0.7208478225844115</v>
       </c>
       <c r="D24">
-        <v>-1.878742597605232e-08</v>
+        <v>-1.344855417226618e-06</v>
       </c>
       <c r="E24">
-        <v>13.14017783389293</v>
+        <v>-4.125555775200108e-07</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.001064057380033</v>
+        <v>0.9997705862723731</v>
       </c>
       <c r="C25">
-        <v>1.047883502236766</v>
+        <v>-1.110834098062683</v>
       </c>
       <c r="D25">
-        <v>-6.999998569297382</v>
+        <v>6.999998081203318</v>
       </c>
       <c r="E25">
-        <v>-0.9999995480498152</v>
+        <v>-21.15173404391097</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9994643869100923</v>
+        <v>0.99983816134306</v>
       </c>
       <c r="C26">
-        <v>1.13630736892276</v>
+        <v>-0.9158266485929057</v>
       </c>
       <c r="D26">
-        <v>-2.442614108200125e-08</v>
+        <v>-1.852740281732105e-06</v>
       </c>
       <c r="E26">
-        <v>11.75090570003055</v>
+        <v>-2.732319738281863e-07</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.9997489945929747</v>
+        <v>1.00022423336732</v>
       </c>
       <c r="C27">
-        <v>0.2759989322748829</v>
+        <v>-0.1361280933070403</v>
       </c>
       <c r="D27">
-        <v>2.09616350197589e-08</v>
+        <v>-3.829398125703744e-08</v>
       </c>
       <c r="E27">
-        <v>1.00000001227624</v>
+        <v>-0.5200000218193284</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.9999166330160029</v>
+        <v>1.000049781647435</v>
       </c>
       <c r="C28">
-        <v>0.3593491679793365</v>
+        <v>-0.1188508591990884</v>
       </c>
       <c r="D28">
-        <v>-3.055162069512396e-10</v>
+        <v>-4.780703574309086</v>
       </c>
       <c r="E28">
-        <v>-0.8999303567203426</v>
+        <v>10.33660513193067</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.000023023982372</v>
+        <v>1.000023024152161</v>
       </c>
       <c r="C29">
-        <v>0.4489628525898201</v>
+        <v>-0.1930981313079649</v>
       </c>
       <c r="D29">
-        <v>-0.4000000002997386</v>
+        <v>0.3999999996426242</v>
       </c>
       <c r="E29">
-        <v>-1.909557305005504</v>
+        <v>-1.385801718346722</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.9999486529078315</v>
+        <v>0.9999486554720137</v>
       </c>
       <c r="C30">
-        <v>0.5502943078790836</v>
+        <v>-0.2560552005949266</v>
       </c>
       <c r="D30">
-        <v>-0.4000000003081668</v>
+        <v>-1.87302274384793e-10</v>
       </c>
       <c r="E30">
-        <v>-0.06174730788998915</v>
+        <v>5.700152325366176</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.9999800627170481</v>
+        <v>0.9999800625735284</v>
       </c>
       <c r="C31">
-        <v>0.6111400475778832</v>
+        <v>-0.3096492172480587</v>
       </c>
       <c r="D31">
-        <v>-0.4000000002985974</v>
+        <v>-1.829707370858136e-10</v>
       </c>
       <c r="E31">
-        <v>1.121731826365963</v>
+        <v>0.4315440190541638</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.000042854991734</v>
+        <v>1.000042857046211</v>
       </c>
       <c r="C32">
-        <v>0.6625273798898502</v>
+        <v>-0.3662523994193972</v>
       </c>
       <c r="D32">
-        <v>-0.4000000003010334</v>
+        <v>-1.779123081496747e-10</v>
       </c>
       <c r="E32">
-        <v>-2.902690531242068</v>
+        <v>1.190805696753863</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.9999913647721517</v>
+        <v>0.9999913644753039</v>
       </c>
       <c r="C33">
-        <v>0.7060880507648809</v>
+        <v>-0.3919093668518416</v>
       </c>
       <c r="D33">
-        <v>-0.4000000002979214</v>
+        <v>0.3999999998161369</v>
       </c>
       <c r="E33">
-        <v>2.486152648018971</v>
+        <v>1.106324592006096</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.000066982544681</v>
+        <v>1.000066982489264</v>
       </c>
       <c r="C34">
-        <v>0.7306655760943007</v>
+        <v>-0.4236751704108245</v>
       </c>
       <c r="D34">
-        <v>-0.4000000002998109</v>
+        <v>0.399999999811653</v>
       </c>
       <c r="E34">
-        <v>-1.402156357329329</v>
+        <v>-2.782597825306105</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9999951282706461</v>
+        <v>0.9999951305860527</v>
       </c>
       <c r="C35">
-        <v>0.7634186612397401</v>
+        <v>-0.4343883287780556</v>
       </c>
       <c r="D35">
-        <v>-0.4000000002958368</v>
+        <v>-1.821007268587582e-10</v>
       </c>
       <c r="E35">
-        <v>-1.458949293652528</v>
+        <v>1.722358320033604</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.9999577465225039</v>
+        <v>0.999957747624553</v>
       </c>
       <c r="C36">
-        <v>0.7783858018338805</v>
+        <v>-0.4420363729778551</v>
       </c>
       <c r="D36">
-        <v>-0.4000000002976564</v>
+        <v>0.3999999998134908</v>
       </c>
       <c r="E36">
-        <v>1.047036944732225</v>
+        <v>2.253961824328717</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.000053889308227</v>
+        <v>1.000053890734304</v>
       </c>
       <c r="C37">
-        <v>0.6465471506666766</v>
+        <v>-0.3804318697659779</v>
       </c>
       <c r="D37">
-        <v>-0.4000000002941196</v>
+        <v>-1.867908189234768e-10</v>
       </c>
       <c r="E37">
-        <v>-1.899266940568431</v>
+        <v>-1.439700906651669</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.000025911292872</v>
+        <v>1.000025912917362</v>
       </c>
       <c r="C38">
-        <v>0.6855803523543198</v>
+        <v>-0.4398592895593121</v>
       </c>
       <c r="D38">
-        <v>-2.94996897569344e-10</v>
+        <v>-1.878421671680508e-10</v>
       </c>
       <c r="E38">
-        <v>-0.3986134891127217</v>
+        <v>1.895116003794534</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.000043512937636</v>
+        <v>1.000043510732299</v>
       </c>
       <c r="C39">
-        <v>0.7503004763213893</v>
+        <v>-0.5172816223092547</v>
       </c>
       <c r="D39">
-        <v>-0.4000000002900636</v>
+        <v>0.399999999808429</v>
       </c>
       <c r="E39">
-        <v>2.192971187952669</v>
+        <v>-2.636385028897098</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.000010217108321</v>
+        <v>1.000010216183736</v>
       </c>
       <c r="C40">
-        <v>0.6910032460903427</v>
+        <v>-0.505688828092886</v>
       </c>
       <c r="D40">
-        <v>-2.946148624539957e-10</v>
+        <v>0.399999999809305</v>
       </c>
       <c r="E40">
-        <v>0.1892984110929763</v>
+        <v>-2.231622576176837</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.000012911962643</v>
+        <v>1.00001290862386</v>
       </c>
       <c r="C41">
-        <v>0.7840082323725363</v>
+        <v>-0.4374632323858297</v>
       </c>
       <c r="D41">
-        <v>-0.7000000002878206</v>
+        <v>0.3999999998114123</v>
       </c>
       <c r="E41">
-        <v>4.682497457280704</v>
+        <v>-1.924563515066844</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.00003767966767</v>
+        <v>1.000037680399007</v>
       </c>
       <c r="C42">
-        <v>0.7286631805384765</v>
+        <v>-0.4640466593087983</v>
       </c>
       <c r="D42">
-        <v>-0.4000000002982164</v>
+        <v>-1.87903097595421e-10</v>
       </c>
       <c r="E42">
-        <v>-0.2288450621148033</v>
+        <v>-0.3524951208856775</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.9999674203744158</v>
+        <v>0.9999674203581029</v>
       </c>
       <c r="C43">
-        <v>0.7452137252485237</v>
+        <v>-0.5131809811806596</v>
       </c>
       <c r="D43">
-        <v>-2.95615682974204e-10</v>
+        <v>0.3999999998131663</v>
       </c>
       <c r="E43">
-        <v>0.6916553901570958</v>
+        <v>-0.1938748782357184</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.000014784444775</v>
+        <v>1.000014782148853</v>
       </c>
       <c r="C44">
-        <v>0.8072766807367538</v>
+        <v>-0.5273689944599679</v>
       </c>
       <c r="D44">
-        <v>-0.4000000002913072</v>
+        <v>0.399999999810197</v>
       </c>
       <c r="E44">
-        <v>2.677920237513916</v>
+        <v>-2.144139111274214</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.9999516243677122</v>
+        <v>0.9999516234416395</v>
       </c>
       <c r="C45">
-        <v>0.750672111188076</v>
+        <v>-0.578983704681207</v>
       </c>
       <c r="D45">
-        <v>-2.945220681921379e-10</v>
+        <v>0.3999999998087458</v>
       </c>
       <c r="E45">
-        <v>0.1905150392360865</v>
+        <v>-2.23041760584271</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9999545076353359</v>
+        <v>0.9999545049649925</v>
       </c>
       <c r="C46">
-        <v>0.8656993526725024</v>
+        <v>-0.4915511902435353</v>
       </c>
       <c r="D46">
-        <v>-0.5000000002905894</v>
+        <v>0.3999999998127041</v>
       </c>
       <c r="E46">
-        <v>3.487146008347407</v>
+        <v>-1.928920138123714</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.000050447255362</v>
+        <v>1.000050445798284</v>
       </c>
       <c r="C47">
-        <v>0.799590954096145</v>
+        <v>-0.5277363858398231</v>
       </c>
       <c r="D47">
-        <v>-0.3000000002949401</v>
+        <v>0.2999999998105259</v>
       </c>
       <c r="E47">
-        <v>0.6904635060991966</v>
+        <v>-2.941738973357725</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.9997489945929747</v>
+        <v>1.00022423336732</v>
       </c>
       <c r="C48">
-        <v>0.2759989322748829</v>
+        <v>-0.1361280933070403</v>
       </c>
       <c r="D48">
-        <v>2.09616350197589e-08</v>
+        <v>-3.829398125703744e-08</v>
       </c>
       <c r="E48">
-        <v>1.00000001227624</v>
+        <v>-0.5200000218193284</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.9997943112278614</v>
+        <v>1.000152146553382</v>
       </c>
       <c r="C49">
-        <v>0.2741638675433569</v>
+        <v>-0.1280921580273475</v>
       </c>
       <c r="D49">
-        <v>-2.938176216216171e-09</v>
+        <v>-0.4951047927959479</v>
       </c>
       <c r="E49">
-        <v>7.132587068740346</v>
+        <v>1.927010622251868e-09</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.000011384449252</v>
+        <v>1.000056880980615</v>
       </c>
       <c r="C50">
-        <v>0.2531756228012375</v>
+        <v>-0.1207374288173283</v>
       </c>
       <c r="D50">
-        <v>-2.96350518430577e-09</v>
+        <v>1.032049948819148e-08</v>
       </c>
       <c r="E50">
-        <v>-7.584620321867152</v>
+        <v>2.924719939227331e-09</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.000051062292019</v>
+        <v>1.000031634554811</v>
       </c>
       <c r="C51">
-        <v>0.2494404537450054</v>
+        <v>-0.1186164126772664</v>
       </c>
       <c r="D51">
-        <v>-0.03500000294317308</v>
+        <v>0.03500000456371948</v>
       </c>
       <c r="E51">
-        <v>-2.468029705767952</v>
+        <v>0.9011803917867781</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.000029710635558</v>
+        <v>1.00002971608025</v>
       </c>
       <c r="C52">
-        <v>0.2522828548433622</v>
+        <v>-0.1188664682155335</v>
       </c>
       <c r="D52">
-        <v>-0.0300000029599061</v>
+        <v>0.03000000455589218</v>
       </c>
       <c r="E52">
-        <v>-0.5886634353496492</v>
+        <v>-1.513800276796973</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.9999927909688686</v>
+        <v>0.9999927754128093</v>
       </c>
       <c r="C53">
-        <v>0.2566644944292782</v>
+        <v>-0.1150109297726141</v>
       </c>
       <c r="D53">
-        <v>-0.04000000293755877</v>
+        <v>0.04000000461905765</v>
       </c>
       <c r="E53">
-        <v>3.393676822514642</v>
+        <v>3.239803027004232</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.000035676527569</v>
+        <v>1.000035684932283</v>
       </c>
       <c r="C54">
-        <v>0.2518796939472455</v>
+        <v>-0.1197984039328167</v>
       </c>
       <c r="D54">
-        <v>-2.934164250109617e-09</v>
+        <v>4.615610210007004e-09</v>
       </c>
       <c r="E54">
-        <v>-1.78219768425976</v>
+        <v>-1.783193534237192</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.000006320237394</v>
+        <v>0.9999868749330977</v>
       </c>
       <c r="C55">
-        <v>0.2562903854917804</v>
+        <v>-0.1155025951465747</v>
       </c>
       <c r="D55">
-        <v>-0.04500000294165524</v>
+        <v>0.04500000457784978</v>
       </c>
       <c r="E55">
-        <v>0.8456662517934558</v>
+        <v>4.176314167054011</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.000019500705154</v>
+        <v>1.000019496074432</v>
       </c>
       <c r="C56">
-        <v>0.2570726446428793</v>
+        <v>-0.1214182295197501</v>
       </c>
       <c r="D56">
-        <v>-0.06500000295179621</v>
+        <v>0.06500000457260102</v>
       </c>
       <c r="E56">
-        <v>1.630408996396327</v>
+        <v>0.5703634659825838</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.000068874371744</v>
+        <v>1.00006890276361</v>
       </c>
       <c r="C57">
-        <v>0.2533882154007533</v>
+        <v>-0.1287749649886974</v>
       </c>
       <c r="D57">
-        <v>-0.01500000293582316</v>
+        <v>0.01500000462017676</v>
       </c>
       <c r="E57">
-        <v>-5.983972863066009</v>
+        <v>-6.046109105448297</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.9999871816017444</v>
+        <v>0.9999871585677315</v>
       </c>
       <c r="C58">
-        <v>0.2639824578143751</v>
+        <v>-0.1211500742434596</v>
       </c>
       <c r="D58">
-        <v>-0.05000000293742576</v>
+        <v>0.05000000463994918</v>
       </c>
       <c r="E58">
-        <v>5.002016504028564</v>
+        <v>4.811290494389125</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.000009931158291</v>
+        <v>1.000009936616363</v>
       </c>
       <c r="C59">
-        <v>0.2628444793329771</v>
+        <v>-0.1251025388637787</v>
       </c>
       <c r="D59">
-        <v>-2.943866388507854e-09</v>
+        <v>4.609014768799935e-09</v>
       </c>
       <c r="E59">
-        <v>-1.157454438481429</v>
+        <v>-1.158153081725344</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.000006943758257</v>
+        <v>1.000006946548613</v>
       </c>
       <c r="C60">
-        <v>0.2640786069098506</v>
+        <v>-0.1256713704867876</v>
       </c>
       <c r="D60">
-        <v>-0.04060000293129497</v>
+        <v>0.04060000460762603</v>
       </c>
       <c r="E60">
-        <v>-0.4953865027012431</v>
+        <v>-0.653299099411229</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.9999901331194826</v>
+        <v>0.9999901369851396</v>
       </c>
       <c r="C61">
-        <v>0.2665868191866058</v>
+        <v>-0.1244302140066954</v>
       </c>
       <c r="D61">
-        <v>-0.05250000293829683</v>
+        <v>0.05250000462259258</v>
       </c>
       <c r="E61">
-        <v>-0.694948326033004</v>
+        <v>-0.8999100166980806</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.9999592825895464</v>
+        <v>0.9999592756281669</v>
       </c>
       <c r="C62">
-        <v>0.270274131412536</v>
+        <v>-0.1212331927317117</v>
       </c>
       <c r="D62">
-        <v>-0.04340000294371815</v>
+        <v>0.04340000462966131</v>
       </c>
       <c r="E62">
-        <v>1.579902076988075</v>
+        <v>1.411442204077751</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.000008115987265</v>
+        <v>1.000008135404287</v>
       </c>
       <c r="C63">
-        <v>0.2634748708559894</v>
+        <v>-0.1253375139002345</v>
       </c>
       <c r="D63">
-        <v>-0.03360000294844349</v>
+        <v>0.03360000462199151</v>
       </c>
       <c r="E63">
-        <v>-4.038482406745163</v>
+        <v>-4.171883452360609</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.9999216606762558</v>
+        <v>0.9999216398926332</v>
       </c>
       <c r="C64">
-        <v>0.2733600218861721</v>
+        <v>-0.1159313587576801</v>
       </c>
       <c r="D64">
-        <v>-0.04270000294031863</v>
+        <v>0.04270000461847225</v>
       </c>
       <c r="E64">
-        <v>4.509470398179273</v>
+        <v>4.346265082610369</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.9999265341915188</v>
+        <v>0.9999265353076894</v>
       </c>
       <c r="C65">
-        <v>0.2728162776402503</v>
+        <v>-0.1164775464680837</v>
       </c>
       <c r="D65">
-        <v>-2.936032131826971e-09</v>
+        <v>4.627255472181274e-09</v>
       </c>
       <c r="E65">
-        <v>-0.2362409687772945</v>
+        <v>-0.2373025740568712</v>
       </c>
     </row>
   </sheetData>

--- a/result/bus_ev.xlsx
+++ b/result/bus_ev.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.000049959814275</v>
+        <v>1.004815992114793</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-7.400070402869141</v>
+        <v>-25.03365539880679</v>
       </c>
       <c r="E2">
-        <v>15.2095757779233</v>
+        <v>-0.07891984416713879</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.00022423336732</v>
+        <v>1.001774771884638</v>
       </c>
       <c r="C3">
-        <v>-0.1361280933070403</v>
+        <v>-0.1000328811148825</v>
       </c>
       <c r="D3">
-        <v>-3.829398125703744e-08</v>
+        <v>-3.666645256249834e-06</v>
       </c>
       <c r="E3">
-        <v>-0.5200000218193284</v>
+        <v>-2.114491890470649e-06</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.00022423336732</v>
+        <v>1.001774771884638</v>
       </c>
       <c r="C4">
-        <v>-0.1361280933070403</v>
+        <v>-0.1000328811148825</v>
       </c>
       <c r="D4">
-        <v>-3.829398125703744e-08</v>
+        <v>-3.666645256249834e-06</v>
       </c>
       <c r="E4">
-        <v>-0.5200000218193284</v>
+        <v>-2.114491890470649e-06</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.000203388240797</v>
+        <v>1.001656144456674</v>
       </c>
       <c r="C5">
-        <v>-0.1338215771628684</v>
+        <v>-0.1035148477375881</v>
       </c>
       <c r="D5">
-        <v>-2.509527442005313</v>
+        <v>2.743230790802286e-06</v>
       </c>
       <c r="E5">
-        <v>8.940109756661041e-09</v>
+        <v>1.17757243305903e-06</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.000064972828369</v>
+        <v>1.001537520885538</v>
       </c>
       <c r="C6">
-        <v>-0.1349741197214263</v>
+        <v>-0.1069976385731517</v>
       </c>
       <c r="D6">
-        <v>0.1890000226138598</v>
+        <v>0.1267081344119278</v>
       </c>
       <c r="E6">
-        <v>9.241813925145274e-09</v>
+        <v>4.286894428508762e-06</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9999354136117194</v>
+        <v>1.001424829303802</v>
       </c>
       <c r="C7">
-        <v>-0.1358663616289451</v>
+        <v>-0.1103070456009604</v>
       </c>
       <c r="D7">
-        <v>0.1890000037736738</v>
+        <v>0.1701032230638158</v>
       </c>
       <c r="E7">
-        <v>11.54056748596847</v>
+        <v>7.213422850303654e-06</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9999926440951248</v>
+        <v>1.001326129039917</v>
       </c>
       <c r="C8">
-        <v>-0.155474169901938</v>
+        <v>-0.113206125587561</v>
       </c>
       <c r="D8">
-        <v>0.1890000044631359</v>
+        <v>0.1581847242741578</v>
       </c>
       <c r="E8">
-        <v>2.482378255683177</v>
+        <v>9.774275454941075e-06</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.000001725225278</v>
+        <v>1.001260230606067</v>
       </c>
       <c r="C9">
-        <v>-0.1646046460903015</v>
+        <v>-0.1151419543692475</v>
       </c>
       <c r="D9">
-        <v>0.1673000046283437</v>
+        <v>0.1784728333836141</v>
       </c>
       <c r="E9">
-        <v>-0.8506405896114184</v>
+        <v>1.142052982144181e-05</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9999981937213921</v>
+        <v>1.001202686076332</v>
       </c>
       <c r="C10">
-        <v>-0.1712205396696795</v>
+        <v>-0.1168325635612796</v>
       </c>
       <c r="D10">
-        <v>0.1890000046353719</v>
+        <v>0.1693585214776604</v>
       </c>
       <c r="E10">
-        <v>1.048120830890818</v>
+        <v>1.288390025027178e-05</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.000003891077364</v>
+        <v>1.001161520213349</v>
       </c>
       <c r="C11">
-        <v>-0.1767073712744211</v>
+        <v>-0.1180420497091423</v>
       </c>
       <c r="D11">
-        <v>0.1148000046448682</v>
+        <v>0.1266436288482301</v>
       </c>
       <c r="E11">
-        <v>-0.3695862345078732</v>
+        <v>1.398146497730952e-05</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.000006080862365</v>
+        <v>1.001126282645646</v>
       </c>
       <c r="C12">
-        <v>-0.1810435905821711</v>
+        <v>-0.119077437206911</v>
       </c>
       <c r="D12">
-        <v>0.1036000046359818</v>
+        <v>0.1483295224113082</v>
       </c>
       <c r="E12">
-        <v>-0.3412810788297914</v>
+        <v>1.489612346335898e-05</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.00000491650224</v>
+        <v>1.001097988533181</v>
       </c>
       <c r="C13">
-        <v>-0.1843206752792546</v>
+        <v>-0.1199088548597606</v>
       </c>
       <c r="D13">
-        <v>0.1470000046451759</v>
+        <v>0.1497171956574856</v>
       </c>
       <c r="E13">
-        <v>0.6558083722778497</v>
+        <v>1.562786372094729e-05</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.000002364331789</v>
+        <v>1.001085086886075</v>
       </c>
       <c r="C14">
-        <v>-0.1856370338803617</v>
+        <v>-0.1202879716630308</v>
       </c>
       <c r="D14">
-        <v>0.106400004629561</v>
+        <v>0.1602109488473754</v>
       </c>
       <c r="E14">
-        <v>0.4603935951608307</v>
+        <v>1.599372502084095e-05</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.00000157312937</v>
+        <v>1.001398610412223</v>
       </c>
       <c r="C15">
-        <v>-0.1874736464556613</v>
+        <v>-0.1104615305929179</v>
       </c>
       <c r="D15">
-        <v>0.1274000039594587</v>
+        <v>0.1288282148001522</v>
       </c>
       <c r="E15">
-        <v>-4.406170148387069</v>
+        <v>7.372964686146134e-06</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.000001905386841</v>
+        <v>1.001197267997012</v>
       </c>
       <c r="C16">
-        <v>-0.2378685738213087</v>
+        <v>-0.1139651961576056</v>
       </c>
       <c r="D16">
-        <v>0.1050000047625272</v>
+        <v>0.1280176662643852</v>
       </c>
       <c r="E16">
-        <v>-1.630639461794436</v>
+        <v>1.051921606487472e-05</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9999977646328914</v>
+        <v>1.001098809531794</v>
       </c>
       <c r="C17">
-        <v>-0.2979007128628411</v>
+        <v>-0.114545289607787</v>
       </c>
       <c r="D17">
-        <v>0.1470000048606892</v>
+        <v>0.1699514427309015</v>
       </c>
       <c r="E17">
-        <v>-1.29004436072915</v>
+        <v>1.107795543027105e-05</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9999977905833595</v>
+        <v>1.001040716169441</v>
       </c>
       <c r="C18">
-        <v>-0.340152210924106</v>
+        <v>-0.1148875652187092</v>
       </c>
       <c r="D18">
-        <v>0.1463000049279579</v>
+        <v>0.117399892903895</v>
       </c>
       <c r="E18">
-        <v>-1.251051408664094</v>
+        <v>1.145046393651931e-05</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.000001659947109</v>
+        <v>1.001014823535554</v>
       </c>
       <c r="C19">
-        <v>-0.3615831034015768</v>
+        <v>-0.1150401353870413</v>
       </c>
       <c r="D19">
-        <v>0.168000004963871</v>
+        <v>0.1271759213344654</v>
       </c>
       <c r="E19">
-        <v>-1.818000078818594</v>
+        <v>1.161011384585414e-05</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9999975166629766</v>
+        <v>1.001165931327026</v>
       </c>
       <c r="C20">
-        <v>-0.1865771238600582</v>
+        <v>-0.117049143277342</v>
       </c>
       <c r="D20">
-        <v>0.1372000046628308</v>
+        <v>0.1805545795278974</v>
       </c>
       <c r="E20">
-        <v>-1.300973761485901</v>
+        <v>1.304350767321793e-05</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.000005365792173</v>
+        <v>1.001061526241666</v>
       </c>
       <c r="C21">
-        <v>-0.199018973943014</v>
+        <v>-0.1201237001702825</v>
       </c>
       <c r="D21">
-        <v>0.1260000046619616</v>
+        <v>0.1790989331721394</v>
       </c>
       <c r="E21">
-        <v>-1.245771746061954</v>
+        <v>1.578749277910687e-05</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9999920243690669</v>
+        <v>1.001061593969547</v>
       </c>
       <c r="C22">
-        <v>-0.195448472436646</v>
+        <v>-0.1204263293999585</v>
       </c>
       <c r="D22">
-        <v>0.1358000046559946</v>
+        <v>0.1153941294885101</v>
       </c>
       <c r="E22">
-        <v>-0.8262403319445413</v>
+        <v>1.615336188767226e-05</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.00022423336732</v>
+        <v>1.001774771884638</v>
       </c>
       <c r="C23">
-        <v>-0.1361280933070403</v>
+        <v>-0.1000328811148825</v>
       </c>
       <c r="D23">
-        <v>-3.829398125703744e-08</v>
+        <v>-3.666645256249834e-06</v>
       </c>
       <c r="E23">
-        <v>-0.5200000218193284</v>
+        <v>-2.114491890470649e-06</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9999173160093502</v>
+        <v>0.9995825335668155</v>
       </c>
       <c r="C24">
-        <v>-0.7208478225844115</v>
+        <v>-0.1389507294873439</v>
       </c>
       <c r="D24">
-        <v>-1.344855417226618e-06</v>
+        <v>-1.314065551020798e-05</v>
       </c>
       <c r="E24">
-        <v>-4.125555775200108e-07</v>
+        <v>-5.047205461851863e-06</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9997705862723731</v>
+        <v>0.9981212914899361</v>
       </c>
       <c r="C25">
-        <v>-1.110834098062683</v>
+        <v>-0.1649909126140389</v>
       </c>
       <c r="D25">
-        <v>6.999998081203318</v>
+        <v>4.999982330367191</v>
       </c>
       <c r="E25">
-        <v>-21.15173404391097</v>
+        <v>-6.025779499076178e-06</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.99983816134306</v>
+        <v>0.9988518908208992</v>
       </c>
       <c r="C26">
-        <v>-0.9158266485929057</v>
+        <v>-0.1519612983979938</v>
       </c>
       <c r="D26">
-        <v>-1.852740281732105e-06</v>
+        <v>-1.69747451721575e-05</v>
       </c>
       <c r="E26">
-        <v>-2.732319738281863e-07</v>
+        <v>-5.36008488240938e-06</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.00022423336732</v>
+        <v>1.001774771884638</v>
       </c>
       <c r="C27">
-        <v>-0.1361280933070403</v>
+        <v>-0.1000328811148825</v>
       </c>
       <c r="D27">
-        <v>-3.829398125703744e-08</v>
+        <v>-3.666645256249834e-06</v>
       </c>
       <c r="E27">
-        <v>-0.5200000218193284</v>
+        <v>-2.114491890470649e-06</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.000049781647435</v>
+        <v>1.001105687640972</v>
       </c>
       <c r="C28">
-        <v>-0.1188508591990884</v>
+        <v>-0.1220752904586166</v>
       </c>
       <c r="D28">
-        <v>-4.780703574309086</v>
+        <v>-1.985428896186851e-05</v>
       </c>
       <c r="E28">
-        <v>10.33660513193067</v>
+        <v>-1.147524768680503e-05</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.000023024152161</v>
+        <v>1.000436748536074</v>
       </c>
       <c r="C29">
-        <v>-0.1930981313079649</v>
+        <v>-0.1441471803304351</v>
       </c>
       <c r="D29">
-        <v>0.3999999996426242</v>
+        <v>0.5998004147492303</v>
       </c>
       <c r="E29">
-        <v>-1.385801718346722</v>
+        <v>-2.037172056220337e-05</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.9999486554720137</v>
+        <v>0.999841030425033</v>
       </c>
       <c r="C30">
-        <v>-0.2560552005949266</v>
+        <v>-0.1638217316234057</v>
       </c>
       <c r="D30">
-        <v>-1.87302274384793e-10</v>
+        <v>-0.0004906421296307151</v>
       </c>
       <c r="E30">
-        <v>5.700152325366176</v>
+        <v>0.0004119427464699808</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.9999800625735284</v>
+        <v>0.9993916795685955</v>
       </c>
       <c r="C31">
-        <v>-0.3096492172480587</v>
+        <v>-0.1786694267808757</v>
       </c>
       <c r="D31">
-        <v>-1.829707370858136e-10</v>
+        <v>0.2990745522329963</v>
       </c>
       <c r="E31">
-        <v>0.4315440190541638</v>
+        <v>-3.443160080728622e-05</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.000042857046211</v>
+        <v>0.9989788702959105</v>
       </c>
       <c r="C32">
-        <v>-0.3662523994193972</v>
+        <v>-0.1923181673022126</v>
       </c>
       <c r="D32">
-        <v>-1.779123081496747e-10</v>
+        <v>-0.00139570419473008</v>
       </c>
       <c r="E32">
-        <v>1.190805696753863</v>
+        <v>0.001287442993974043</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.9999913644753039</v>
+        <v>0.9987116568685992</v>
       </c>
       <c r="C33">
-        <v>-0.3919093668518416</v>
+        <v>-0.2011702125450725</v>
       </c>
       <c r="D33">
-        <v>0.3999999998161369</v>
+        <v>0.3983134983942579</v>
       </c>
       <c r="E33">
-        <v>1.106324592006096</v>
+        <v>-4.241005099550003e-05</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.000066982489264</v>
+        <v>0.9984930810159861</v>
       </c>
       <c r="C34">
-        <v>-0.4236751704108245</v>
+        <v>-0.2084108460400018</v>
       </c>
       <c r="D34">
-        <v>0.399999999811653</v>
+        <v>0.3980401999928303</v>
       </c>
       <c r="E34">
-        <v>-2.782597825306105</v>
+        <v>-4.47583030594174e-05</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9999951305860527</v>
+        <v>0.9983231127426614</v>
       </c>
       <c r="C35">
-        <v>-0.4343883287780556</v>
+        <v>-0.2140390426532215</v>
       </c>
       <c r="D35">
-        <v>-1.821007268587582e-10</v>
+        <v>-0.002193140767674644</v>
       </c>
       <c r="E35">
-        <v>1.722358320033604</v>
+        <v>0.00206553855881978</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.999957747624553</v>
+        <v>0.9982015851611882</v>
       </c>
       <c r="C36">
-        <v>-0.4420363729778551</v>
+        <v>-0.2180782269343072</v>
       </c>
       <c r="D36">
-        <v>0.3999999998134908</v>
+        <v>0.6976803556347907</v>
       </c>
       <c r="E36">
-        <v>2.253961824328717</v>
+        <v>-4.757700967313212e-05</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.000053890734304</v>
+        <v>0.9994481114173045</v>
       </c>
       <c r="C37">
-        <v>-0.3804318697659779</v>
+        <v>-0.1692873432791488</v>
       </c>
       <c r="D37">
-        <v>-1.867908189234768e-10</v>
+        <v>-0.0002977128041267731</v>
       </c>
       <c r="E37">
-        <v>-1.439700906651669</v>
+        <v>0.0002054958533133094</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.000025912917362</v>
+        <v>0.9991861247122439</v>
       </c>
       <c r="C38">
-        <v>-0.4398592895593121</v>
+        <v>-0.1729355089873252</v>
       </c>
       <c r="D38">
-        <v>-1.878421671680508e-10</v>
+        <v>-0.0002526587415382043</v>
       </c>
       <c r="E38">
-        <v>1.895116003794534</v>
+        <v>0.0001523212775860133</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.000043510732299</v>
+        <v>0.9989860487089948</v>
       </c>
       <c r="C39">
-        <v>-0.5172816223092547</v>
+        <v>-0.1748383000389303</v>
       </c>
       <c r="D39">
-        <v>0.399999999808429</v>
+        <v>0.3997441277067685</v>
       </c>
       <c r="E39">
-        <v>-2.636385028897098</v>
+        <v>-3.356534739572758e-05</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.000010216183736</v>
+        <v>0.9989860435001718</v>
       </c>
       <c r="C40">
-        <v>-0.505688828092886</v>
+        <v>-0.1748383495507095</v>
       </c>
       <c r="D40">
-        <v>0.399999999809305</v>
+        <v>0.3997545324761514</v>
       </c>
       <c r="E40">
-        <v>-2.231622576176837</v>
+        <v>-3.356534720392571e-05</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.00001290862386</v>
+        <v>0.9992480645860511</v>
       </c>
       <c r="C41">
-        <v>-0.4374632323858297</v>
+        <v>-0.1711893114839978</v>
       </c>
       <c r="D41">
-        <v>0.3999999998114123</v>
+        <v>0.3997904113435306</v>
       </c>
       <c r="E41">
-        <v>-1.924563515066844</v>
+        <v>-3.198463768060177e-05</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.000037680399007</v>
+        <v>0.9985879014457598</v>
       </c>
       <c r="C42">
-        <v>-0.4640466593087983</v>
+        <v>-0.1977343032019882</v>
       </c>
       <c r="D42">
-        <v>-1.87903097595421e-10</v>
+        <v>-0.001875768699814904</v>
       </c>
       <c r="E42">
-        <v>-0.3524951208856775</v>
+        <v>0.001756624390097954</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.9999674203581029</v>
+        <v>0.9983269770868808</v>
       </c>
       <c r="C43">
-        <v>-0.5131809811806596</v>
+        <v>-0.2013744752956655</v>
       </c>
       <c r="D43">
-        <v>0.3999999998131663</v>
+        <v>0.3978440335701995</v>
       </c>
       <c r="E43">
-        <v>-0.1938748782357184</v>
+        <v>-4.276632183885945e-05</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.000014782148853</v>
+        <v>0.9983886082529845</v>
       </c>
       <c r="C44">
-        <v>-0.5273689944599679</v>
+        <v>-0.1996310460655505</v>
       </c>
       <c r="D44">
-        <v>0.399999999810197</v>
+        <v>0.3979434417925063</v>
       </c>
       <c r="E44">
-        <v>-2.144139111274214</v>
+        <v>-4.225904452684879e-05</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.9999516234416395</v>
+        <v>0.9981278032686068</v>
       </c>
       <c r="C45">
-        <v>-0.578983704681207</v>
+        <v>-0.2032706098064471</v>
       </c>
       <c r="D45">
-        <v>0.3999999998087458</v>
+        <v>0.3976013688144705</v>
       </c>
       <c r="E45">
-        <v>-2.23041760584271</v>
+        <v>-4.331732855096071e-05</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9999545049649925</v>
+        <v>0.998123957991226</v>
       </c>
       <c r="C46">
-        <v>-0.4915511902435353</v>
+        <v>-0.2159351174837645</v>
       </c>
       <c r="D46">
-        <v>0.3999999998127041</v>
+        <v>0.3975624174372586</v>
       </c>
       <c r="E46">
-        <v>-1.928920138123714</v>
+        <v>-4.718896582020082e-05</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.000050445798284</v>
+        <v>0.9980526043382217</v>
       </c>
       <c r="C47">
-        <v>-0.5277363858398231</v>
+        <v>-0.2194971680961036</v>
       </c>
       <c r="D47">
-        <v>0.2999999998105259</v>
+        <v>0.297383848502156</v>
       </c>
       <c r="E47">
-        <v>-2.941738973357725</v>
+        <v>-4.812878648965046e-05</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.00022423336732</v>
+        <v>1.001774771884638</v>
       </c>
       <c r="C48">
-        <v>-0.1361280933070403</v>
+        <v>-0.1000328811148825</v>
       </c>
       <c r="D48">
-        <v>-3.829398125703744e-08</v>
+        <v>-3.666645256249834e-06</v>
       </c>
       <c r="E48">
-        <v>-0.5200000218193284</v>
+        <v>-2.114491890470649e-06</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.000152146553382</v>
+        <v>1.001217191754931</v>
       </c>
       <c r="C49">
-        <v>-0.1280921580273475</v>
+        <v>-0.1163730829514132</v>
       </c>
       <c r="D49">
-        <v>-0.4951047927959479</v>
+        <v>-4.883322433124553e-06</v>
       </c>
       <c r="E49">
-        <v>1.927010622251868e-09</v>
+        <v>-2.736208513311531e-06</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.000056880980615</v>
+        <v>1.000659692854164</v>
       </c>
       <c r="C50">
-        <v>-0.1207374288173283</v>
+        <v>-0.1327314927811596</v>
       </c>
       <c r="D50">
-        <v>1.032049948819148e-08</v>
+        <v>-4.874224937691556e-05</v>
       </c>
       <c r="E50">
-        <v>2.924719939227331e-09</v>
+        <v>-3.321521406586247e-06</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.000031634554811</v>
+        <v>1.00050650914955</v>
       </c>
       <c r="C51">
-        <v>-0.1186164126772664</v>
+        <v>-0.1372360637842771</v>
       </c>
       <c r="D51">
-        <v>0.03500000456371948</v>
+        <v>1.120024018657177</v>
       </c>
       <c r="E51">
-        <v>0.9011803917867781</v>
+        <v>-3.467404071087841e-06</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.00002971608025</v>
+        <v>1.00040578699164</v>
       </c>
       <c r="C52">
-        <v>-0.1188664682155335</v>
+        <v>-0.1401987903254539</v>
       </c>
       <c r="D52">
-        <v>0.03000000455589218</v>
+        <v>1.200076440932652</v>
       </c>
       <c r="E52">
-        <v>-1.513800276796973</v>
+        <v>-3.576817316973142e-06</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.9999927754128093</v>
+        <v>1.000361278523392</v>
       </c>
       <c r="C53">
-        <v>-0.1150109297726141</v>
+        <v>-0.1415084363446022</v>
       </c>
       <c r="D53">
-        <v>0.04000000461905765</v>
+        <v>0.9501108252196421</v>
       </c>
       <c r="E53">
-        <v>3.239803027004232</v>
+        <v>-3.649775921064479e-06</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.000035684932283</v>
+        <v>1.00036127587189</v>
       </c>
       <c r="C54">
-        <v>-0.1197984039328167</v>
+        <v>-0.1415089816152552</v>
       </c>
       <c r="D54">
-        <v>4.615610210007004e-09</v>
+        <v>0.000127384244589187</v>
       </c>
       <c r="E54">
-        <v>-1.783193534237192</v>
+        <v>-0.0001378162648580967</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.9999868749330977</v>
+        <v>1.000255440654595</v>
       </c>
       <c r="C55">
-        <v>-0.1155025951465747</v>
+        <v>-0.1445999877476539</v>
       </c>
       <c r="D55">
-        <v>0.04500000457784978</v>
+        <v>0.899808553063696</v>
       </c>
       <c r="E55">
-        <v>4.176314167054011</v>
+        <v>-3.724486346452782e-06</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.000019496074432</v>
+        <v>0.9998933808801153</v>
       </c>
       <c r="C56">
-        <v>-0.1214182295197501</v>
+        <v>-0.1552370190289671</v>
       </c>
       <c r="D56">
-        <v>0.06500000457260102</v>
+        <v>1.299651396653929</v>
       </c>
       <c r="E56">
-        <v>0.5703634659825838</v>
+        <v>-4.090952044125389e-06</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.00006890276361</v>
+        <v>0.9995922576859119</v>
       </c>
       <c r="C57">
-        <v>-0.1287749649886974</v>
+        <v>-0.1640881020692024</v>
       </c>
       <c r="D57">
-        <v>0.01500000462017676</v>
+        <v>0.9694908103367297</v>
       </c>
       <c r="E57">
-        <v>-6.046109105448297</v>
+        <v>-4.42085897888779e-06</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.9999871585677315</v>
+        <v>0.9993731243086253</v>
       </c>
       <c r="C58">
-        <v>-0.1211500742434596</v>
+        <v>-0.1705316533869004</v>
       </c>
       <c r="D58">
-        <v>0.05000000463994918</v>
+        <v>0.9993590489292514</v>
       </c>
       <c r="E58">
-        <v>4.811290494389125</v>
+        <v>-4.672267977249168e-06</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.000009936616363</v>
+        <v>0.9991643405465587</v>
       </c>
       <c r="C59">
-        <v>-0.1251025388637787</v>
+        <v>-0.176672316239093</v>
       </c>
       <c r="D59">
-        <v>4.609014768799935e-09</v>
+        <v>-0.0007837439162359742</v>
       </c>
       <c r="E59">
-        <v>-1.158153081725344</v>
+        <v>0.000769625463273705</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.000006946548613</v>
+        <v>0.9990364022678481</v>
       </c>
       <c r="C60">
-        <v>-0.1256713704867876</v>
+        <v>-0.1804398087310382</v>
       </c>
       <c r="D60">
-        <v>0.04060000460762603</v>
+        <v>0.8111474526178628</v>
       </c>
       <c r="E60">
-        <v>-0.653299099411229</v>
+        <v>-5.038993272258024e-06</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.9999901369851396</v>
+        <v>0.9989465137233629</v>
       </c>
       <c r="C61">
-        <v>-0.1244302140066954</v>
+        <v>-0.1830873691390342</v>
       </c>
       <c r="D61">
-        <v>0.05250000462259258</v>
+        <v>1.049100093239348</v>
       </c>
       <c r="E61">
-        <v>-0.8999100166980806</v>
+        <v>-5.112347820589429e-06</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.9999592756281669</v>
+        <v>0.9989116492153438</v>
       </c>
       <c r="C62">
-        <v>-0.1212331927317117</v>
+        <v>-0.184114383674776</v>
       </c>
       <c r="D62">
-        <v>0.04340000462966131</v>
+        <v>0.8670797509710476</v>
       </c>
       <c r="E62">
-        <v>1.411442204077751</v>
+        <v>-5.143794385192163e-06</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.000008135404287</v>
+        <v>0.9990950362047891</v>
       </c>
       <c r="C63">
-        <v>-0.1253375139002345</v>
+        <v>-0.1787108189444347</v>
       </c>
       <c r="D63">
-        <v>0.03360000462199151</v>
+        <v>0.8711679756235123</v>
       </c>
       <c r="E63">
-        <v>-4.171883452360609</v>
+        <v>-5.023267272587142e-06</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.9999216398926332</v>
+        <v>0.9990607549537909</v>
       </c>
       <c r="C64">
-        <v>-0.1159313587576801</v>
+        <v>-0.1797179838690521</v>
       </c>
       <c r="D64">
-        <v>0.04270000461847225</v>
+        <v>0.853136643424787</v>
       </c>
       <c r="E64">
-        <v>4.346265082610369</v>
+        <v>-5.086139420948377e-06</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.9999265353076894</v>
+        <v>0.9990607724470749</v>
       </c>
       <c r="C65">
-        <v>-0.1164775464680837</v>
+        <v>-0.1797149500491613</v>
       </c>
       <c r="D65">
-        <v>4.627255472181274e-09</v>
+        <v>-0.0008790466466569771</v>
       </c>
       <c r="E65">
-        <v>-0.2373025740568712</v>
+        <v>0.0008643698733015467</v>
       </c>
     </row>
   </sheetData>

--- a/result/bus_ev.xlsx
+++ b/result/bus_ev.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.004815992114793</v>
+        <v>1.002271325055989</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-25.03365539880679</v>
+        <v>-12.25430975481226</v>
       </c>
       <c r="E2">
-        <v>-0.07891984416713879</v>
+        <v>-0.02134894278303114</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.001774771884638</v>
+        <v>1.000779665111847</v>
       </c>
       <c r="C3">
-        <v>-0.1000328811148825</v>
+        <v>-0.04926090856767178</v>
       </c>
       <c r="D3">
-        <v>-3.666645256249834e-06</v>
+        <v>-1.73010409796773e-06</v>
       </c>
       <c r="E3">
-        <v>-2.114491890470649e-06</v>
+        <v>-9.997632170564097e-07</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.001774771884638</v>
+        <v>1.000779665111847</v>
       </c>
       <c r="C4">
-        <v>-0.1000328811148825</v>
+        <v>-0.04926090856767178</v>
       </c>
       <c r="D4">
-        <v>-3.666645256249834e-06</v>
+        <v>-1.73010409796773e-06</v>
       </c>
       <c r="E4">
-        <v>-2.114491890470649e-06</v>
+        <v>-9.997632170564097e-07</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.001656144456674</v>
+        <v>1.000660942156155</v>
       </c>
       <c r="C5">
-        <v>-0.1035148477375881</v>
+        <v>-0.05274974378549738</v>
       </c>
       <c r="D5">
-        <v>2.743230790802286e-06</v>
+        <v>-5.611233789355042e-07</v>
       </c>
       <c r="E5">
-        <v>1.17757243305903e-06</v>
+        <v>-3.992168012337613e-07</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.001537520885538</v>
+        <v>1.00054222287571</v>
       </c>
       <c r="C6">
-        <v>-0.1069976385731517</v>
+        <v>-0.05623940665346096</v>
       </c>
       <c r="D6">
-        <v>0.1267081344119278</v>
+        <v>0.126699878587195</v>
       </c>
       <c r="E6">
-        <v>4.286894428508762e-06</v>
+        <v>1.680060586525649e-07</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.001424829303802</v>
+        <v>1.000429441006729</v>
       </c>
       <c r="C7">
-        <v>-0.1103070456009604</v>
+        <v>-0.05955534231847134</v>
       </c>
       <c r="D7">
-        <v>0.1701032230638158</v>
+        <v>0.170090305449102</v>
       </c>
       <c r="E7">
-        <v>7.213422850303654e-06</v>
+        <v>7.018679568554281e-07</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.001326129039917</v>
+        <v>1.000330662796631</v>
       </c>
       <c r="C8">
-        <v>-0.113206125587561</v>
+        <v>-0.06246013723326077</v>
       </c>
       <c r="D8">
-        <v>0.1581847242741578</v>
+        <v>0.158167726241399</v>
       </c>
       <c r="E8">
-        <v>9.774275454941075e-06</v>
+        <v>1.16901024411605e-06</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.001260230606067</v>
+        <v>1.000264711877702</v>
       </c>
       <c r="C9">
-        <v>-0.1151419543692475</v>
+        <v>-0.064399813701444</v>
       </c>
       <c r="D9">
-        <v>0.1784728333836141</v>
+        <v>0.1784532116063188</v>
       </c>
       <c r="E9">
-        <v>1.142052982144181e-05</v>
+        <v>1.469307159007494e-06</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.001202686076332</v>
+        <v>1.000207122020508</v>
       </c>
       <c r="C10">
-        <v>-0.1168325635612796</v>
+        <v>-0.06609378296496657</v>
       </c>
       <c r="D10">
-        <v>0.1693585214776604</v>
+        <v>0.1693365670741507</v>
       </c>
       <c r="E10">
-        <v>1.288390025027178e-05</v>
+        <v>1.736235993682399e-06</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.001161520213349</v>
+        <v>1.000165924478455</v>
       </c>
       <c r="C11">
-        <v>-0.1180420497091423</v>
+        <v>-0.06730567325981629</v>
       </c>
       <c r="D11">
-        <v>0.1266436288482301</v>
+        <v>0.1266199248052247</v>
       </c>
       <c r="E11">
-        <v>1.398146497730952e-05</v>
+        <v>1.936434358325718e-06</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.001126282645646</v>
+        <v>1.000130659733251</v>
       </c>
       <c r="C12">
-        <v>-0.119077437206911</v>
+        <v>-0.06834311862394883</v>
       </c>
       <c r="D12">
-        <v>0.1483295224113082</v>
+        <v>0.1483043601121827</v>
       </c>
       <c r="E12">
-        <v>1.489612346335898e-05</v>
+        <v>2.103282155245935e-06</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.001097988533181</v>
+        <v>1.000102343869206</v>
       </c>
       <c r="C13">
-        <v>-0.1199088548597606</v>
+        <v>-0.06917618829478631</v>
       </c>
       <c r="D13">
-        <v>0.1497171956574856</v>
+        <v>0.1496908666089154</v>
       </c>
       <c r="E13">
-        <v>1.562786372094729e-05</v>
+        <v>2.236745654821901e-06</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.001085086886075</v>
+        <v>1.000089432620832</v>
       </c>
       <c r="C14">
-        <v>-0.1202879716630308</v>
+        <v>-0.06955605823763455</v>
       </c>
       <c r="D14">
-        <v>0.1602109488473754</v>
+        <v>0.160184036520278</v>
       </c>
       <c r="E14">
-        <v>1.599372502084095e-05</v>
+        <v>2.30348684008495e-06</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.001398610412223</v>
+        <v>1.000403199056106</v>
       </c>
       <c r="C15">
-        <v>-0.1104615305929179</v>
+        <v>-0.05971019532549757</v>
       </c>
       <c r="D15">
-        <v>0.1288282148001522</v>
+        <v>0.128814030576002</v>
       </c>
       <c r="E15">
-        <v>7.372964686146134e-06</v>
+        <v>7.309701083974506e-07</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.001197267997012</v>
+        <v>1.000201701084717</v>
       </c>
       <c r="C16">
-        <v>-0.1139651961576056</v>
+        <v>-0.06322109270454067</v>
       </c>
       <c r="D16">
-        <v>0.1280176662643852</v>
+        <v>0.1279947522584913</v>
       </c>
       <c r="E16">
-        <v>1.051921606487472e-05</v>
+        <v>1.30490989369198e-06</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.001098809531794</v>
+        <v>1.000103166539763</v>
       </c>
       <c r="C17">
-        <v>-0.114545289607787</v>
+        <v>-0.06380262160924326</v>
       </c>
       <c r="D17">
-        <v>0.1699514427309015</v>
+        <v>0.1699240903478971</v>
       </c>
       <c r="E17">
-        <v>1.107795543027105e-05</v>
+        <v>1.406841213231661e-06</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.001040716169441</v>
+        <v>1.000045030543184</v>
       </c>
       <c r="C18">
-        <v>-0.1148875652187092</v>
+        <v>-0.06414576576265205</v>
       </c>
       <c r="D18">
-        <v>0.117399892903895</v>
+        <v>0.117369581435653</v>
       </c>
       <c r="E18">
-        <v>1.145046393651931e-05</v>
+        <v>1.474797871740146e-06</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.001014823535554</v>
+        <v>1.000019118776487</v>
       </c>
       <c r="C19">
-        <v>-0.1150401353870413</v>
+        <v>-0.06429871990662839</v>
       </c>
       <c r="D19">
-        <v>0.1271759213344654</v>
+        <v>0.1271443414902781</v>
       </c>
       <c r="E19">
-        <v>1.161011384585414e-05</v>
+        <v>1.503923089862959e-06</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.001165931327026</v>
+        <v>1.00017033565333</v>
       </c>
       <c r="C20">
-        <v>-0.117049143277342</v>
+        <v>-0.06631089777301173</v>
       </c>
       <c r="D20">
-        <v>0.1805545795278974</v>
+        <v>0.180531356988687</v>
       </c>
       <c r="E20">
-        <v>1.304350767321793e-05</v>
+        <v>1.765352317846508e-06</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.001061526241666</v>
+        <v>1.000065851183489</v>
       </c>
       <c r="C21">
-        <v>-0.1201237001702825</v>
+        <v>-0.06939158627283432</v>
       </c>
       <c r="D21">
-        <v>0.1790989331721394</v>
+        <v>0.1790713354613658</v>
       </c>
       <c r="E21">
-        <v>1.578749277910687e-05</v>
+        <v>2.265865555469495e-06</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.001061593969547</v>
+        <v>1.000065922347639</v>
       </c>
       <c r="C22">
-        <v>-0.1204263293999585</v>
+        <v>-0.06969481906364224</v>
       </c>
       <c r="D22">
-        <v>0.1153941294885101</v>
+        <v>0.1153659491677713</v>
       </c>
       <c r="E22">
-        <v>1.615336188767226e-05</v>
+        <v>2.332600285964048e-06</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.001774771884638</v>
+        <v>1.000779665111847</v>
       </c>
       <c r="C23">
-        <v>-0.1000328811148825</v>
+        <v>-0.04926090856767178</v>
       </c>
       <c r="D23">
-        <v>-3.666645256249834e-06</v>
+        <v>-1.73010409796773e-06</v>
       </c>
       <c r="E23">
-        <v>-2.114491890470649e-06</v>
+        <v>-9.997632170564097e-07</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9995825335668155</v>
+        <v>0.9985852414059594</v>
       </c>
       <c r="C24">
-        <v>-0.1389507294873439</v>
+        <v>-0.08825632120642654</v>
       </c>
       <c r="D24">
-        <v>-1.314065551020798e-05</v>
+        <v>-1.942835606835048e-05</v>
       </c>
       <c r="E24">
-        <v>-5.047205461851863e-06</v>
+        <v>-6.486486650955113e-06</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9981212914899361</v>
+        <v>0.9971225397746711</v>
       </c>
       <c r="C25">
-        <v>-0.1649909126140389</v>
+        <v>-0.1143486064202386</v>
       </c>
       <c r="D25">
-        <v>4.999982330367191</v>
+        <v>4.999973276845522</v>
       </c>
       <c r="E25">
-        <v>-6.025779499076178e-06</v>
+        <v>-8.317232205717201e-06</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9988518908208992</v>
+        <v>0.9978538709471791</v>
       </c>
       <c r="C26">
-        <v>-0.1519612983979938</v>
+        <v>-0.1012928964858902</v>
       </c>
       <c r="D26">
-        <v>-1.69747451721575e-05</v>
+        <v>-2.601329498786053e-05</v>
       </c>
       <c r="E26">
-        <v>-5.36008488240938e-06</v>
+        <v>-7.651117611719939e-06</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.001774771884638</v>
+        <v>1.000779665111847</v>
       </c>
       <c r="C27">
-        <v>-0.1000328811148825</v>
+        <v>-0.04926090856767178</v>
       </c>
       <c r="D27">
-        <v>-3.666645256249834e-06</v>
+        <v>-1.73010409796773e-06</v>
       </c>
       <c r="E27">
-        <v>-2.114491890470649e-06</v>
+        <v>-9.997632170564097e-07</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.001105687640972</v>
+        <v>1.000522137569367</v>
       </c>
       <c r="C28">
-        <v>-0.1220752904586166</v>
+        <v>-0.0577670206282919</v>
       </c>
       <c r="D28">
-        <v>-1.985428896186851e-05</v>
+        <v>-6.875745943506664e-06</v>
       </c>
       <c r="E28">
-        <v>-1.147524768680503e-05</v>
+        <v>-3.977446363847626e-06</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.000436748536074</v>
+        <v>1.000264630971635</v>
       </c>
       <c r="C29">
-        <v>-0.1441471803304351</v>
+        <v>-0.06627751249378662</v>
       </c>
       <c r="D29">
-        <v>0.5998004147492303</v>
+        <v>0.1999229210322111</v>
       </c>
       <c r="E29">
-        <v>-2.037172056220337e-05</v>
+        <v>-6.807212894617006e-06</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.999841030425033</v>
+        <v>1.000031509949806</v>
       </c>
       <c r="C30">
-        <v>-0.1638217316234057</v>
+        <v>-0.07398381840172406</v>
       </c>
       <c r="D30">
-        <v>-0.0004906421296307151</v>
+        <v>-0.0001910654621128777</v>
       </c>
       <c r="E30">
-        <v>0.0004119427464699808</v>
+        <v>0.0001651673047051485</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.9993916795685955</v>
+        <v>0.9998520161354718</v>
       </c>
       <c r="C31">
-        <v>-0.1786694267808757</v>
+        <v>-0.07991668582844044</v>
       </c>
       <c r="D31">
-        <v>0.2990745522329963</v>
+        <v>0.09962647747694164</v>
       </c>
       <c r="E31">
-        <v>-3.443160080728622e-05</v>
+        <v>-1.127907941032136e-05</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.9989788702959105</v>
+        <v>0.9996846787162184</v>
       </c>
       <c r="C32">
-        <v>-0.1923181673022126</v>
+        <v>-0.08544842424888111</v>
       </c>
       <c r="D32">
-        <v>-0.00139570419473008</v>
+        <v>-0.0005717246559574853</v>
       </c>
       <c r="E32">
-        <v>0.001287442993974043</v>
+        <v>0.0005364496486025795</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.9987116568685992</v>
+        <v>0.9995876732271491</v>
       </c>
       <c r="C33">
-        <v>-0.2011702125450725</v>
+        <v>-0.08865988431883065</v>
       </c>
       <c r="D33">
-        <v>0.3983134983942579</v>
+        <v>0.09931997366796542</v>
       </c>
       <c r="E33">
-        <v>-4.241005099550003e-05</v>
+        <v>-1.381653793582378e-05</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.9984930810159861</v>
+        <v>0.9995027825369253</v>
       </c>
       <c r="C34">
-        <v>-0.2084108460400018</v>
+        <v>-0.0914697844454006</v>
       </c>
       <c r="D34">
-        <v>0.3980401999928303</v>
+        <v>0.1492169407322401</v>
       </c>
       <c r="E34">
-        <v>-4.47583030594174e-05</v>
+        <v>-1.456331401936887e-05</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9983231127426614</v>
+        <v>0.9994360927120532</v>
       </c>
       <c r="C35">
-        <v>-0.2140390426532215</v>
+        <v>-0.09367588631197162</v>
       </c>
       <c r="D35">
-        <v>-0.002193140767674644</v>
+        <v>-0.0008685871194169017</v>
       </c>
       <c r="E35">
-        <v>0.00206553855881978</v>
+        <v>0.0008271867693996242</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.9982015851611882</v>
+        <v>0.9993997361359936</v>
       </c>
       <c r="C36">
-        <v>-0.2180782269343072</v>
+        <v>-0.09488296875355297</v>
       </c>
       <c r="D36">
-        <v>0.6976803556347907</v>
+        <v>0.1990864999022505</v>
       </c>
       <c r="E36">
-        <v>-4.757700967313212e-05</v>
+        <v>-1.545964254276173e-05</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.9994481114173045</v>
+        <v>0.9998874843163476</v>
       </c>
       <c r="C37">
-        <v>-0.1692873432791488</v>
+        <v>-0.07598823975823382</v>
       </c>
       <c r="D37">
-        <v>-0.0002977128041267731</v>
+        <v>-9.246290912529787e-05</v>
       </c>
       <c r="E37">
-        <v>0.0002054958533133094</v>
+        <v>6.227568499061259e-05</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.9991861247122439</v>
+        <v>0.9998023676075986</v>
       </c>
       <c r="C38">
-        <v>-0.1729355089873252</v>
+        <v>-0.07717369207731302</v>
       </c>
       <c r="D38">
-        <v>-0.0002526587415382043</v>
+        <v>-5.209096335048573e-05</v>
       </c>
       <c r="E38">
-        <v>0.0001523212775860133</v>
+        <v>1.932971410087467e-05</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.9989860487089948</v>
+        <v>0.9997523747403907</v>
       </c>
       <c r="C39">
-        <v>-0.1748383000389303</v>
+        <v>-0.07764892608782731</v>
       </c>
       <c r="D39">
-        <v>0.3997441277067685</v>
+        <v>0.09996107839470421</v>
       </c>
       <c r="E39">
-        <v>-3.356534739572758e-05</v>
+        <v>-1.100321875304852e-05</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9989860435001718</v>
+        <v>0.9997223638453206</v>
       </c>
       <c r="C40">
-        <v>-0.1748383495507095</v>
+        <v>-0.07793401592590272</v>
       </c>
       <c r="D40">
-        <v>0.3997545324761514</v>
+        <v>0.1599621046569597</v>
       </c>
       <c r="E40">
-        <v>-3.356534720392571e-05</v>
+        <v>-1.100322927646719e-05</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9992480645860511</v>
+        <v>0.9997974931874885</v>
       </c>
       <c r="C41">
-        <v>-0.1711893114839978</v>
+        <v>-0.07684335136494624</v>
       </c>
       <c r="D41">
-        <v>0.3997904113435306</v>
+        <v>0.1799443538121213</v>
       </c>
       <c r="E41">
-        <v>-3.198463768060177e-05</v>
+        <v>-1.050069198228873e-05</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9985879014457598</v>
+        <v>0.9994957859289315</v>
       </c>
       <c r="C42">
-        <v>-0.1977343032019882</v>
+        <v>-0.08806479277901341</v>
       </c>
       <c r="D42">
-        <v>-0.001875768699814904</v>
+        <v>-0.0008084580368356498</v>
       </c>
       <c r="E42">
-        <v>0.001756624390097954</v>
+        <v>0.0007697322321557386</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.9983269770868808</v>
+        <v>0.9993555441748809</v>
       </c>
       <c r="C43">
-        <v>-0.2013744752956655</v>
+        <v>-0.09001917363406861</v>
       </c>
       <c r="D43">
-        <v>0.3978440335701995</v>
+        <v>0.1290503304547888</v>
       </c>
       <c r="E43">
-        <v>-4.276632183885945e-05</v>
+        <v>-1.392983700957651e-05</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.9983886082529845</v>
+        <v>0.9994211873758783</v>
       </c>
       <c r="C44">
-        <v>-0.1996310460655505</v>
+        <v>-0.08877406867247611</v>
       </c>
       <c r="D44">
-        <v>0.3979434417925063</v>
+        <v>0.1491104136112413</v>
       </c>
       <c r="E44">
-        <v>-4.225904452684879e-05</v>
+        <v>-1.376851160278118e-05</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.9981278032686068</v>
+        <v>0.9992059630474744</v>
       </c>
       <c r="C45">
-        <v>-0.2032706098064471</v>
+        <v>-0.09144117691313679</v>
       </c>
       <c r="D45">
-        <v>0.3976013688144705</v>
+        <v>0.2989214911743081</v>
       </c>
       <c r="E45">
-        <v>-4.331732855096071e-05</v>
+        <v>-1.410506394838103e-05</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.998123957991226</v>
+        <v>0.9993114884820296</v>
       </c>
       <c r="C46">
-        <v>-0.2159351174837645</v>
+        <v>-0.09486045560100864</v>
       </c>
       <c r="D46">
-        <v>0.3975624174372586</v>
+        <v>0.2490348762394975</v>
       </c>
       <c r="E46">
-        <v>-4.718896582020082e-05</v>
+        <v>-1.533626893091277e-05</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.9980526043382217</v>
+        <v>0.9993502182824894</v>
       </c>
       <c r="C47">
-        <v>-0.2194971680961036</v>
+        <v>-0.09535401663189801</v>
       </c>
       <c r="D47">
-        <v>0.297383848502156</v>
+        <v>0.09897224381188967</v>
       </c>
       <c r="E47">
-        <v>-4.812878648965046e-05</v>
+        <v>-1.563508271505224e-05</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.001774771884638</v>
+        <v>1.000779665111847</v>
       </c>
       <c r="C48">
-        <v>-0.1000328811148825</v>
+        <v>-0.04926090856767178</v>
       </c>
       <c r="D48">
-        <v>-3.666645256249834e-06</v>
+        <v>-1.73010409796773e-06</v>
       </c>
       <c r="E48">
-        <v>-2.114491890470649e-06</v>
+        <v>-9.997632170564097e-07</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.001217191754931</v>
+        <v>1.000659290446735</v>
       </c>
       <c r="C49">
-        <v>-0.1163730829514132</v>
+        <v>-0.05279797305429956</v>
       </c>
       <c r="D49">
-        <v>-4.883322433124553e-06</v>
+        <v>9.378796472737588e-08</v>
       </c>
       <c r="E49">
-        <v>-2.736208513311531e-06</v>
+        <v>-6.291527590766269e-08</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.000659692854164</v>
+        <v>1.000538919598947</v>
       </c>
       <c r="C50">
-        <v>-0.1327314927811596</v>
+        <v>-0.05633588831679063</v>
       </c>
       <c r="D50">
-        <v>-4.874224937691556e-05</v>
+        <v>-6.762909624906864e-06</v>
       </c>
       <c r="E50">
-        <v>-3.321521406586247e-06</v>
+        <v>8.188518523647784e-07</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.00050650914955</v>
+        <v>1.00050062796693</v>
       </c>
       <c r="C51">
-        <v>-0.1372360637842771</v>
+        <v>-0.05746205051365089</v>
       </c>
       <c r="D51">
-        <v>1.120024018657177</v>
+        <v>0.2800033099327913</v>
       </c>
       <c r="E51">
-        <v>-3.467404071087841e-06</v>
+        <v>1.039274901477438e-06</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.00040578699164</v>
+        <v>1.000475450887639</v>
       </c>
       <c r="C52">
-        <v>-0.1401987903254539</v>
+        <v>-0.05820257063692079</v>
       </c>
       <c r="D52">
-        <v>1.200076440932652</v>
+        <v>0.3000108446984502</v>
       </c>
       <c r="E52">
-        <v>-3.576817316973142e-06</v>
+        <v>1.204602949822812e-06</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.000361278523392</v>
+        <v>1.000464325615742</v>
       </c>
       <c r="C53">
-        <v>-0.1415084363446022</v>
+        <v>-0.05852982834397333</v>
       </c>
       <c r="D53">
-        <v>0.9501108252196421</v>
+        <v>0.2375159528851016</v>
       </c>
       <c r="E53">
-        <v>-3.649775921064479e-06</v>
+        <v>1.314815314443923e-06</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.00036127587189</v>
+        <v>1.000464325106077</v>
       </c>
       <c r="C54">
-        <v>-0.1415089816152552</v>
+        <v>-0.05852988951940093</v>
       </c>
       <c r="D54">
-        <v>0.000127384244589187</v>
+        <v>1.787871153172429e-05</v>
       </c>
       <c r="E54">
-        <v>-0.0001378162648580967</v>
+        <v>-1.362441187062793e-05</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.000255440654595</v>
+        <v>1.000456843073893</v>
       </c>
       <c r="C55">
-        <v>-0.1445999877476539</v>
+        <v>-0.05874831952147502</v>
       </c>
       <c r="D55">
-        <v>0.899808553063696</v>
+        <v>0.2249714830438288</v>
       </c>
       <c r="E55">
-        <v>-3.724486346452782e-06</v>
+        <v>1.425081601265832e-06</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.9998933808801153</v>
+        <v>1.000385305382051</v>
       </c>
       <c r="C56">
-        <v>-0.1552370190289671</v>
+        <v>-0.06085117584596716</v>
       </c>
       <c r="D56">
-        <v>1.299651396653929</v>
+        <v>0.324947158050505</v>
       </c>
       <c r="E56">
-        <v>-4.090952044125389e-06</v>
+        <v>1.976225352026857e-06</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.9995922576859119</v>
+        <v>1.00032898982704</v>
       </c>
       <c r="C57">
-        <v>-0.1640881020692024</v>
+        <v>-0.06250656075398446</v>
       </c>
       <c r="D57">
-        <v>0.9694908103367297</v>
+        <v>0.2424227448209077</v>
       </c>
       <c r="E57">
-        <v>-4.42085897888779e-06</v>
+        <v>2.472242960187667e-06</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.9993731243086253</v>
+        <v>1.000290453733007</v>
       </c>
       <c r="C58">
-        <v>-0.1705316533869004</v>
+        <v>-0.06363925956133822</v>
       </c>
       <c r="D58">
-        <v>0.9993590489292514</v>
+        <v>0.2499036451344979</v>
       </c>
       <c r="E58">
-        <v>-4.672267977249168e-06</v>
+        <v>2.850172523301839e-06</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.9991643405465587</v>
+        <v>1.0002572023593</v>
       </c>
       <c r="C59">
-        <v>-0.176672316239093</v>
+        <v>-0.06461644377906758</v>
       </c>
       <c r="D59">
-        <v>-0.0007837439162359742</v>
+        <v>-0.0001168921247772547</v>
       </c>
       <c r="E59">
-        <v>0.000769625463273705</v>
+        <v>0.0001266482633954458</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.9990364022678481</v>
+        <v>1.00023728181463</v>
       </c>
       <c r="C60">
-        <v>-0.1804398087310382</v>
+        <v>-0.06520243011381567</v>
       </c>
       <c r="D60">
-        <v>0.8111474526178628</v>
+        <v>0.1475724329158047</v>
       </c>
       <c r="E60">
-        <v>-5.038993272258024e-06</v>
+        <v>3.401314343775798e-06</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.9989465137233629</v>
+        <v>1.000224274956989</v>
       </c>
       <c r="C61">
-        <v>-0.1830873691390342</v>
+        <v>-0.06558505306622633</v>
       </c>
       <c r="D61">
-        <v>1.049100093239348</v>
+        <v>0.1489656411176169</v>
       </c>
       <c r="E61">
-        <v>-5.112347820589429e-06</v>
+        <v>3.511550156839262e-06</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.9989116492153438</v>
+        <v>1.000219108223397</v>
       </c>
       <c r="C62">
-        <v>-0.184114383674776</v>
+        <v>-0.06573704472935066</v>
       </c>
       <c r="D62">
-        <v>0.8670797509710476</v>
+        <v>0.1286630528509944</v>
       </c>
       <c r="E62">
-        <v>-5.143794385192163e-06</v>
+        <v>3.558789543924864e-06</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.9990950362047891</v>
+        <v>1.000245774039167</v>
       </c>
       <c r="C63">
-        <v>-0.1787108189444347</v>
+        <v>-0.06495222732344895</v>
       </c>
       <c r="D63">
-        <v>0.8711679756235123</v>
+        <v>0.1160775551149636</v>
       </c>
       <c r="E63">
-        <v>-5.023267272587142e-06</v>
+        <v>3.37769137157012e-06</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.9990607549537909</v>
+        <v>1.000239006954873</v>
       </c>
       <c r="C64">
-        <v>-0.1797179838690521</v>
+        <v>-0.06515089881633042</v>
       </c>
       <c r="D64">
-        <v>0.853136643424787</v>
+        <v>0.1685751467594059</v>
       </c>
       <c r="E64">
-        <v>-5.086139420948377e-06</v>
+        <v>3.472170816462317e-06</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.9990607724470749</v>
+        <v>1.000239009199831</v>
       </c>
       <c r="C65">
-        <v>-0.1797149500491613</v>
+        <v>-0.06515043536972524</v>
       </c>
       <c r="D65">
-        <v>-0.0008790466466569771</v>
+        <v>-0.0001261175762703317</v>
       </c>
       <c r="E65">
-        <v>0.0008643698733015467</v>
+        <v>0.0001367093431916324</v>
       </c>
     </row>
   </sheetData>
